--- a/t3a_experiments/Experiment_1/0_From_Confection/B1_Model_Structure.xlsx
+++ b/t3a_experiments/Experiment_1/0_From_Confection/B1_Model_Structure.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5222CD98-B0D4-48BC-9987-48A441F456D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{838D6DA1-B740-476B-8C62-57EBF32FF73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99262C02-0672-473E-ACC0-8C46521F3303}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sets" sheetId="1" r:id="rId1"/>
     <sheet name="parameters" sheetId="2" r:id="rId2"/>
     <sheet name="variables" sheetId="3" r:id="rId3"/>
+    <sheet name="sector" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sets!$A$1:$L$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">sector!$A$1:$C$302</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sets!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="629">
   <si>
     <t>set</t>
   </si>
@@ -314,9 +316,6 @@
     <t>E6TDFRELIG</t>
   </si>
   <si>
-    <t>CR</t>
-  </si>
-  <si>
     <t>CapacityFactor</t>
   </si>
   <si>
@@ -404,18 +403,9 @@
     <t>CO2e_sources</t>
   </si>
   <si>
-    <t>Techs_Buses</t>
-  </si>
-  <si>
-    <t>Techs_Microbuses</t>
-  </si>
-  <si>
     <t>Techs_Motos</t>
   </si>
   <si>
-    <t>Techs_Taxis</t>
-  </si>
-  <si>
     <t>Techs_Trains</t>
   </si>
   <si>
@@ -425,12 +415,6 @@
     <t>Techs_Li_Freight</t>
   </si>
   <si>
-    <t>CO2e_HeavyCargo</t>
-  </si>
-  <si>
-    <t>CO2e_LightCargo</t>
-  </si>
-  <si>
     <t>Accidents</t>
   </si>
   <si>
@@ -440,18 +424,12 @@
     <t>Health</t>
   </si>
   <si>
-    <t>CO2e_Freight</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
     <t>E1GSL</t>
   </si>
   <si>
-    <t>E1FO1</t>
-  </si>
-  <si>
     <t>CO2e</t>
   </si>
   <si>
@@ -464,15 +442,9 @@
     <t>PPHROR</t>
   </si>
   <si>
-    <t>E1BM</t>
-  </si>
-  <si>
     <t>PPGEO</t>
   </si>
   <si>
-    <t>E1BG</t>
-  </si>
-  <si>
     <t>PPWNDON</t>
   </si>
   <si>
@@ -491,431 +463,1472 @@
     <t>E3ELE</t>
   </si>
   <si>
-    <t>PPBIO</t>
-  </si>
-  <si>
     <t>E3HYD</t>
   </si>
   <si>
-    <t>DIST_BM</t>
+    <t>ELE_TRANS</t>
+  </si>
+  <si>
+    <t>E5COMLPG</t>
+  </si>
+  <si>
+    <t>ELE_DIST</t>
+  </si>
+  <si>
+    <t>E5COMELE</t>
+  </si>
+  <si>
+    <t>HYD_G_PROD</t>
+  </si>
+  <si>
+    <t>E5INDDSL</t>
+  </si>
+  <si>
+    <t>HYD_DIST</t>
+  </si>
+  <si>
+    <t>E5INDLPG</t>
+  </si>
+  <si>
+    <t>E5INDELE</t>
+  </si>
+  <si>
+    <t>T5LPGCOM</t>
+  </si>
+  <si>
+    <t>E5INDFOI</t>
+  </si>
+  <si>
+    <t>T5ELECOM</t>
+  </si>
+  <si>
+    <t>T5DSLIND</t>
+  </si>
+  <si>
+    <t>E5RESLPG</t>
+  </si>
+  <si>
+    <t>T5LPGIND</t>
+  </si>
+  <si>
+    <t>E5RESELE</t>
+  </si>
+  <si>
+    <t>T5ELEIND</t>
+  </si>
+  <si>
+    <t>E4DSL_PRI</t>
+  </si>
+  <si>
+    <t>E4GSL_PRI</t>
+  </si>
+  <si>
+    <t>E4LPG_PRI</t>
+  </si>
+  <si>
+    <t>T5FOIIND</t>
+  </si>
+  <si>
+    <t>E4ELE_PRI</t>
+  </si>
+  <si>
+    <t>E4DSL_PUB</t>
+  </si>
+  <si>
+    <t>T5LPGRES</t>
+  </si>
+  <si>
+    <t>E4LPG_PUB</t>
+  </si>
+  <si>
+    <t>T5ELERES</t>
+  </si>
+  <si>
+    <t>E4ELE_PUB</t>
+  </si>
+  <si>
+    <t>T4DSL_PRI</t>
+  </si>
+  <si>
+    <t>T4GSL_PRI</t>
+  </si>
+  <si>
+    <t>E4ELE_HEA</t>
+  </si>
+  <si>
+    <t>T4LPG_PRI</t>
+  </si>
+  <si>
+    <t>E4DSL_HEA</t>
+  </si>
+  <si>
+    <t>T4ELE_PRI</t>
+  </si>
+  <si>
+    <t>E4LPG_HEA</t>
+  </si>
+  <si>
+    <t>T4DSL_PUB</t>
+  </si>
+  <si>
+    <t>T4LPG_PUB</t>
+  </si>
+  <si>
+    <t>E4DSL_LIG</t>
+  </si>
+  <si>
+    <t>T4ELE_PUB</t>
+  </si>
+  <si>
+    <t>E4GSL_LIG</t>
+  </si>
+  <si>
+    <t>E4LPG_LIG</t>
+  </si>
+  <si>
+    <t>E4ELE_LIG</t>
+  </si>
+  <si>
+    <t>T4ELE_HEA</t>
+  </si>
+  <si>
+    <t>T4DSL_HEA</t>
+  </si>
+  <si>
+    <t>T4LPG_HEA</t>
+  </si>
+  <si>
+    <t>E5TRMOT</t>
+  </si>
+  <si>
+    <t>T4DSL_LIG</t>
+  </si>
+  <si>
+    <t>T4GSL_LIG</t>
+  </si>
+  <si>
+    <t>T4LPG_LIG</t>
+  </si>
+  <si>
+    <t>E5TRXTRAI</t>
+  </si>
+  <si>
+    <t>T4ELE_LIG</t>
+  </si>
+  <si>
+    <t>E5TRXTRAIFRE</t>
+  </si>
+  <si>
+    <t>E5TRYTK</t>
+  </si>
+  <si>
+    <t>E5TRYLF</t>
+  </si>
+  <si>
+    <t>E6TDPASPRI</t>
+  </si>
+  <si>
+    <t>E6TDPASPUB</t>
+  </si>
+  <si>
+    <t>TRMOTGSL</t>
+  </si>
+  <si>
+    <t>TRMOTELE</t>
+  </si>
+  <si>
+    <t>TRXTRAIELE</t>
+  </si>
+  <si>
+    <t>TRXTRAIFREELE</t>
+  </si>
+  <si>
+    <t>TRYTKDSL</t>
+  </si>
+  <si>
+    <t>TRYTKLPG</t>
+  </si>
+  <si>
+    <t>TRYTKELE</t>
+  </si>
+  <si>
+    <t>TRYTKHYD</t>
+  </si>
+  <si>
+    <t>TRYLFDSL</t>
+  </si>
+  <si>
+    <t>TRYLFGSL</t>
+  </si>
+  <si>
+    <t>TRYLFLPG</t>
+  </si>
+  <si>
+    <t>TRYLFELE</t>
+  </si>
+  <si>
+    <t>Techs_Trains_Freight</t>
+  </si>
+  <si>
+    <t>PPPVDS</t>
+  </si>
+  <si>
+    <t>E7ELE</t>
+  </si>
+  <si>
+    <t>DIST_COK</t>
+  </si>
+  <si>
+    <t>DIST_KER</t>
+  </si>
+  <si>
+    <t>DIST_COA</t>
+  </si>
+  <si>
+    <t>IMP_ELE</t>
+  </si>
+  <si>
+    <t>EXTT_CRU</t>
+  </si>
+  <si>
+    <t>EXTT_LPG</t>
+  </si>
+  <si>
+    <t>PPPVTS</t>
+  </si>
+  <si>
+    <t>DIST_FIR</t>
+  </si>
+  <si>
+    <t>DIST_BIM</t>
+  </si>
+  <si>
+    <t>DIST_BGS</t>
+  </si>
+  <si>
+    <t>PPBIM</t>
+  </si>
+  <si>
+    <t>PPBGS</t>
+  </si>
+  <si>
+    <t>PPCOA</t>
+  </si>
+  <si>
+    <t>T5GSLCOM</t>
+  </si>
+  <si>
+    <t>T5FIRCOM</t>
+  </si>
+  <si>
+    <t>T5GSLIND</t>
+  </si>
+  <si>
+    <t>T5COKIND</t>
+  </si>
+  <si>
+    <t>T5BIMIND</t>
+  </si>
+  <si>
+    <t>T5KERRES</t>
+  </si>
+  <si>
+    <t>T5FIRRES</t>
+  </si>
+  <si>
+    <t>T5DSLTOT</t>
+  </si>
+  <si>
+    <t>T5KERTAC</t>
+  </si>
+  <si>
+    <t>TRAUTDSL</t>
+  </si>
+  <si>
+    <t>TRAUTGSL</t>
+  </si>
+  <si>
+    <t>TRAUTLPG</t>
+  </si>
+  <si>
+    <t>TRAUTELE</t>
+  </si>
+  <si>
+    <t>TRAUTHG</t>
+  </si>
+  <si>
+    <t>TRXTTELELE</t>
+  </si>
+  <si>
+    <t>TRYTKHD</t>
+  </si>
+  <si>
+    <t>TRYLFHD</t>
+  </si>
+  <si>
+    <t>Techs_Auto</t>
+  </si>
+  <si>
+    <t>Techs_Telef</t>
+  </si>
+  <si>
+    <t>E1COK</t>
+  </si>
+  <si>
+    <t>E1KER</t>
+  </si>
+  <si>
+    <t>E1COA</t>
+  </si>
+  <si>
+    <t>E1IEL</t>
+  </si>
+  <si>
+    <t>E0_CRU</t>
+  </si>
+  <si>
+    <t>E0_LPG</t>
+  </si>
+  <si>
+    <t>E1FIR</t>
+  </si>
+  <si>
+    <t>E1BIM</t>
+  </si>
+  <si>
+    <t>E1BGS</t>
+  </si>
+  <si>
+    <t>E5COMGSL</t>
+  </si>
+  <si>
+    <t>E5COMFIR</t>
+  </si>
+  <si>
+    <t>E5INDGSL</t>
+  </si>
+  <si>
+    <t>E5INDCOK</t>
+  </si>
+  <si>
+    <t>E5INDBIM</t>
+  </si>
+  <si>
+    <t>E5RESKER</t>
+  </si>
+  <si>
+    <t>E5RESFIR</t>
+  </si>
+  <si>
+    <t>E5TOTDSL</t>
+  </si>
+  <si>
+    <t>E5TACKER</t>
+  </si>
+  <si>
+    <t>E5TRAUT</t>
+  </si>
+  <si>
+    <t>E5TRXTTEL</t>
+  </si>
+  <si>
+    <t>E6TRNOMOT</t>
+  </si>
+  <si>
+    <t>TRANE6NOMOT</t>
+  </si>
+  <si>
+    <t>TRANRAILINF</t>
+  </si>
+  <si>
+    <t>TRMBSDSL</t>
+  </si>
+  <si>
+    <t>TRMBSLPG</t>
+  </si>
+  <si>
+    <t>TRMBSELE</t>
+  </si>
+  <si>
+    <t>TRBPUDSL</t>
+  </si>
+  <si>
+    <t>TRBPULPG</t>
+  </si>
+  <si>
+    <t>TRBPUELE</t>
+  </si>
+  <si>
+    <t>TRBPUHYD</t>
+  </si>
+  <si>
+    <t>E5TRMBS</t>
+  </si>
+  <si>
+    <t>E5TRBPU</t>
+  </si>
+  <si>
+    <t>Techs_Buses_Pub</t>
+  </si>
+  <si>
+    <t>Techs_Buses_Micro</t>
+  </si>
+  <si>
+    <t>DIST_NGS</t>
+  </si>
+  <si>
+    <t>E1NGS</t>
+  </si>
+  <si>
+    <t>E4HYD_PRI</t>
+  </si>
+  <si>
+    <t>T4HYD_PRI</t>
+  </si>
+  <si>
+    <t>E1_SOI</t>
+  </si>
+  <si>
+    <t>E3_BAN</t>
+  </si>
+  <si>
+    <t>E3_TRVEG</t>
+  </si>
+  <si>
+    <t>E3_CAF</t>
+  </si>
+  <si>
+    <t>E3_COC</t>
+  </si>
+  <si>
+    <t>E3_LEC</t>
+  </si>
+  <si>
+    <t>E3_CARAVI</t>
+  </si>
+  <si>
+    <t>E3_CARBOV</t>
+  </si>
+  <si>
+    <t>E3_CARPOR</t>
+  </si>
+  <si>
+    <t>E3_OTRCAR</t>
+  </si>
+  <si>
+    <t>E2_CUL</t>
+  </si>
+  <si>
+    <t>E2_PAS</t>
+  </si>
+  <si>
+    <t>E3_LATHUM</t>
+  </si>
+  <si>
+    <t>E5AGRBAN</t>
+  </si>
+  <si>
+    <t>E5AGRTRVEG</t>
+  </si>
+  <si>
+    <t>E5AGRCAF</t>
+  </si>
+  <si>
+    <t>E5AGRCOC</t>
+  </si>
+  <si>
+    <t>E5GANLEC</t>
+  </si>
+  <si>
+    <t>E5GANCARAVI</t>
+  </si>
+  <si>
+    <t>E5GANCARBOV</t>
+  </si>
+  <si>
+    <t>E5GANCARPOR</t>
+  </si>
+  <si>
+    <t>E5GANOTRCAR</t>
+  </si>
+  <si>
+    <t>E5AGREXPBAN</t>
+  </si>
+  <si>
+    <t>E5AGREXPTRVEG</t>
+  </si>
+  <si>
+    <t>E5AGREXPCAF</t>
+  </si>
+  <si>
+    <t>E5AGREXPCOC</t>
+  </si>
+  <si>
+    <t>E5GANEXPLEC</t>
+  </si>
+  <si>
+    <t>E5GANEXPCARAVI</t>
+  </si>
+  <si>
+    <t>E5GANEXPCARBOV</t>
+  </si>
+  <si>
+    <t>E5GANEXPCARPOR</t>
+  </si>
+  <si>
+    <t>E5GANEXPOTRCAR</t>
+  </si>
+  <si>
+    <t>SOIALL</t>
+  </si>
+  <si>
+    <t>IMPBAN</t>
+  </si>
+  <si>
+    <t>IMPTRVEG</t>
+  </si>
+  <si>
+    <t>IMPCAF</t>
+  </si>
+  <si>
+    <t>IMPCOC</t>
+  </si>
+  <si>
+    <t>IMPLEC</t>
+  </si>
+  <si>
+    <t>IMPCARAVI</t>
+  </si>
+  <si>
+    <t>IMPCARBOV</t>
+  </si>
+  <si>
+    <t>IMPCARPOR</t>
+  </si>
+  <si>
+    <t>IMPOTRCAR</t>
+  </si>
+  <si>
+    <t>LU_FOR</t>
+  </si>
+  <si>
+    <t>AG_BAN</t>
+  </si>
+  <si>
+    <t>AG_TRVEG</t>
+  </si>
+  <si>
+    <t>AG_CAF</t>
+  </si>
+  <si>
+    <t>AG_COC</t>
+  </si>
+  <si>
+    <t>GA_LEC</t>
+  </si>
+  <si>
+    <t>GA_CARAVI</t>
+  </si>
+  <si>
+    <t>GA_CARBOV</t>
+  </si>
+  <si>
+    <t>GA_CARPOR</t>
+  </si>
+  <si>
+    <t>GA_OTRCAR</t>
+  </si>
+  <si>
+    <t>T5BANAGR</t>
+  </si>
+  <si>
+    <t>T5TRVEGAGR</t>
+  </si>
+  <si>
+    <t>T5CAFAGR</t>
+  </si>
+  <si>
+    <t>T5COCAGR</t>
+  </si>
+  <si>
+    <t>T5LECGAN</t>
+  </si>
+  <si>
+    <t>T5CARAVIGAN</t>
+  </si>
+  <si>
+    <t>T5CARBOVGAN</t>
+  </si>
+  <si>
+    <t>T5CARPORGAN</t>
+  </si>
+  <si>
+    <t>T5OTRCARGAN</t>
+  </si>
+  <si>
+    <t>T5BANAGREXP</t>
+  </si>
+  <si>
+    <t>T5TRVEGAGREXP</t>
+  </si>
+  <si>
+    <t>T5CAFAGREXP</t>
+  </si>
+  <si>
+    <t>T5COCAGREXP</t>
+  </si>
+  <si>
+    <t>T5LECGANEXP</t>
+  </si>
+  <si>
+    <t>T5CARAVIGANEXP</t>
+  </si>
+  <si>
+    <t>T5CARBOVGANEXP</t>
+  </si>
+  <si>
+    <t>T5CARPORGANEXP</t>
+  </si>
+  <si>
+    <t>T5OTRCARGANEXP</t>
+  </si>
+  <si>
+    <t>E5COMDSL</t>
   </si>
   <si>
     <t>E5AGRDSL</t>
   </si>
   <si>
-    <t>DIST_BF</t>
+    <t>T5DSLCOM</t>
+  </si>
+  <si>
+    <t>T5DSLAGR</t>
+  </si>
+  <si>
+    <t>DIST_CRU</t>
+  </si>
+  <si>
+    <t>IMPRIC</t>
+  </si>
+  <si>
+    <t>IMPSGC</t>
+  </si>
+  <si>
+    <t>IMPLEG</t>
+  </si>
+  <si>
+    <t>IMPROT</t>
+  </si>
+  <si>
+    <t>IMPFRT</t>
+  </si>
+  <si>
+    <t>IMPCER</t>
+  </si>
+  <si>
+    <t>IMPOTP</t>
+  </si>
+  <si>
+    <t>IMPOTRCARPRO</t>
+  </si>
+  <si>
+    <t>INORG_RCY_OS</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>COMPOST</t>
+  </si>
+  <si>
+    <t>LANDFILL</t>
+  </si>
+  <si>
+    <t>NO_CONTR_OD</t>
+  </si>
+  <si>
+    <t>OPEN_BURN</t>
+  </si>
+  <si>
+    <t>SIT_CLAN</t>
+  </si>
+  <si>
+    <t>AERO_PTAR</t>
+  </si>
+  <si>
+    <t>AERO_PTAR_RU</t>
+  </si>
+  <si>
+    <t>ANAE_LAGN</t>
+  </si>
+  <si>
+    <t>ANAE_LAGN_RU</t>
+  </si>
+  <si>
+    <t>SEPT_SYST</t>
+  </si>
+  <si>
+    <t>LATR</t>
+  </si>
+  <si>
+    <t>EFLT_DISC</t>
+  </si>
+  <si>
+    <t>RAW_MAT_CLK</t>
+  </si>
+  <si>
+    <t>RAW_MAT_CEM</t>
+  </si>
+  <si>
+    <t>REF_DSL</t>
+  </si>
+  <si>
+    <t>REF_GSL</t>
+  </si>
+  <si>
+    <t>REF_LPG</t>
+  </si>
+  <si>
+    <t>REF_FOI</t>
+  </si>
+  <si>
+    <t>PPCCTDSL</t>
+  </si>
+  <si>
+    <t>PPCCFOIDSL</t>
+  </si>
+  <si>
+    <t>PPCCTNGS</t>
+  </si>
+  <si>
+    <t>PPCCTNGSDSL</t>
+  </si>
+  <si>
+    <t>PPICEFOI</t>
+  </si>
+  <si>
+    <t>PPICEGASFOI</t>
+  </si>
+  <si>
+    <t>LU_AGR</t>
+  </si>
+  <si>
+    <t>LU_GAN</t>
+  </si>
+  <si>
+    <t>LU_MTS</t>
+  </si>
+  <si>
+    <t>LU_SAB</t>
+  </si>
+  <si>
+    <t>LU_URB</t>
+  </si>
+  <si>
+    <t>LU_OLU</t>
+  </si>
+  <si>
+    <t>LU_LATHUM</t>
+  </si>
+  <si>
+    <t>LU_CLF</t>
+  </si>
+  <si>
+    <t>LU_LATSHUM</t>
+  </si>
+  <si>
+    <t>LU_DCON</t>
+  </si>
+  <si>
+    <t>LU_SCON</t>
+  </si>
+  <si>
+    <t>LU_WET</t>
+  </si>
+  <si>
+    <t>LU_DRY</t>
+  </si>
+  <si>
+    <t>AG_RIC</t>
+  </si>
+  <si>
+    <t>AG_SGC</t>
+  </si>
+  <si>
+    <t>AG_LEG</t>
+  </si>
+  <si>
+    <t>AG_ROT</t>
+  </si>
+  <si>
+    <t>AG_FRT</t>
+  </si>
+  <si>
+    <t>AGR_CER</t>
+  </si>
+  <si>
+    <t>AGR_OTP</t>
+  </si>
+  <si>
+    <t>GA_OTRCARPRO</t>
+  </si>
+  <si>
+    <t>OSS_INORG</t>
+  </si>
+  <si>
+    <t>OSS_ORG</t>
+  </si>
+  <si>
+    <t>NO_OSS_BLEND</t>
+  </si>
+  <si>
+    <t>NO_OSS_NO_COLL</t>
+  </si>
+  <si>
+    <t>INORG_DCOLL</t>
+  </si>
+  <si>
+    <t>ORG_DCOLL</t>
+  </si>
+  <si>
+    <t>BLEND_NO_DCOLL</t>
+  </si>
+  <si>
+    <t>BLEND_NO_COLL</t>
+  </si>
+  <si>
+    <t>INORG_SS</t>
+  </si>
+  <si>
+    <t>ORG_SS</t>
+  </si>
+  <si>
+    <t>NO_SS</t>
+  </si>
+  <si>
+    <t>WWWT</t>
+  </si>
+  <si>
+    <t>WWWOT</t>
+  </si>
+  <si>
+    <t>SEWERWW</t>
+  </si>
+  <si>
+    <t>DIRECT_DISC</t>
+  </si>
+  <si>
+    <t>PROD_CLK_TRAD</t>
+  </si>
+  <si>
+    <t>PROD_CEM</t>
+  </si>
+  <si>
+    <t>T5NGSCOM</t>
+  </si>
+  <si>
+    <t>T5NGSIND</t>
+  </si>
+  <si>
+    <t>T5HYDIND</t>
+  </si>
+  <si>
+    <t>T5COAIND</t>
+  </si>
+  <si>
+    <t>T5BIMRES</t>
+  </si>
+  <si>
+    <t>T5GSLCON</t>
+  </si>
+  <si>
+    <t>T5LPGCON</t>
+  </si>
+  <si>
+    <t>T5NGSEXP</t>
+  </si>
+  <si>
+    <t>T5KEREXP</t>
+  </si>
+  <si>
+    <t>T5BIMEXP</t>
+  </si>
+  <si>
+    <t>T5GSLTOT</t>
+  </si>
+  <si>
+    <t>T5ELETOT</t>
+  </si>
+  <si>
+    <t>T5GSLTAC</t>
+  </si>
+  <si>
+    <t>T5LPGAGR</t>
+  </si>
+  <si>
+    <t>T5ELEAGR</t>
+  </si>
+  <si>
+    <t>T5SGCAGR</t>
+  </si>
+  <si>
+    <t>T5RICAGR</t>
+  </si>
+  <si>
+    <t>T5CERAGR</t>
+  </si>
+  <si>
+    <t>T5LEGAGR</t>
+  </si>
+  <si>
+    <t>T5ROTAGR</t>
+  </si>
+  <si>
+    <t>T5FRTAGR</t>
+  </si>
+  <si>
+    <t>T5OTPAGR</t>
+  </si>
+  <si>
+    <t>T5OTRCARPROGAN</t>
+  </si>
+  <si>
+    <t>T5SGCAGREXP</t>
+  </si>
+  <si>
+    <t>T5RICAGREXP</t>
+  </si>
+  <si>
+    <t>T5CERAGREXP</t>
+  </si>
+  <si>
+    <t>T5LEGAGREXP</t>
+  </si>
+  <si>
+    <t>T5ROTAGREXP</t>
+  </si>
+  <si>
+    <t>T5FRTAGREXP</t>
+  </si>
+  <si>
+    <t>T5OTPAGREXP</t>
+  </si>
+  <si>
+    <t>T5OTRCARPROGANEXP</t>
+  </si>
+  <si>
+    <t>T5MTSCOB</t>
+  </si>
+  <si>
+    <t>T5SABCOB</t>
+  </si>
+  <si>
+    <t>T5URBCOB</t>
+  </si>
+  <si>
+    <t>T5OLUCOB</t>
+  </si>
+  <si>
+    <t>T5LATHUMBOS</t>
+  </si>
+  <si>
+    <t>T5CLFBOS</t>
+  </si>
+  <si>
+    <t>T5LATSHUMBOS</t>
+  </si>
+  <si>
+    <t>T5DCONBOS</t>
+  </si>
+  <si>
+    <t>T5SCONBOS</t>
+  </si>
+  <si>
+    <t>T5WETBOS</t>
+  </si>
+  <si>
+    <t>T5DRYBOS</t>
+  </si>
+  <si>
+    <t>T5TSWTSW</t>
+  </si>
+  <si>
+    <t>T5TWWTWW</t>
+  </si>
+  <si>
+    <t>T5CEM_PRODCEM_PROD</t>
+  </si>
+  <si>
+    <t>T4GSL_PUB</t>
+  </si>
+  <si>
+    <t>T4NGS_PUB</t>
+  </si>
+  <si>
+    <t>T4DSL_TUR</t>
+  </si>
+  <si>
+    <t>T4GSL_TUR</t>
+  </si>
+  <si>
+    <t>T4LPG_TUR</t>
+  </si>
+  <si>
+    <t>T4ELE_TUR</t>
+  </si>
+  <si>
+    <t>T4NGS_TUR</t>
+  </si>
+  <si>
+    <t>T4GSL_HEA</t>
+  </si>
+  <si>
+    <t>T4NGS_HEA</t>
+  </si>
+  <si>
+    <t>T4HYD_LIG</t>
+  </si>
+  <si>
+    <t>TRTAXGSL</t>
+  </si>
+  <si>
+    <t>TRTAXLPG</t>
+  </si>
+  <si>
+    <t>TRSUVDSL</t>
+  </si>
+  <si>
+    <t>TRSUVGSL</t>
+  </si>
+  <si>
+    <t>TRSUVLPG</t>
+  </si>
+  <si>
+    <t>TRSUVNGS</t>
+  </si>
+  <si>
+    <t>TRBPUGSL</t>
+  </si>
+  <si>
+    <t>TRBTURDSL</t>
+  </si>
+  <si>
+    <t>TRBTURGSL</t>
+  </si>
+  <si>
+    <t>TRBTURLPG</t>
+  </si>
+  <si>
+    <t>TRBTURELE</t>
+  </si>
+  <si>
+    <t>TRBTURHYD</t>
+  </si>
+  <si>
+    <t>TRMBSGSL</t>
+  </si>
+  <si>
+    <t>TRYTKGSL</t>
+  </si>
+  <si>
+    <t>TRYLFNGS</t>
+  </si>
+  <si>
+    <t>Techs_Taxi</t>
+  </si>
+  <si>
+    <t>Techs_SUV</t>
+  </si>
+  <si>
+    <t>Techs_Buses_Tur</t>
+  </si>
+  <si>
+    <t>E1CRU</t>
+  </si>
+  <si>
+    <t>E1FOI</t>
+  </si>
+  <si>
+    <t>E3_RIC</t>
+  </si>
+  <si>
+    <t>E3_SGC</t>
+  </si>
+  <si>
+    <t>E3_LEG</t>
+  </si>
+  <si>
+    <t>E3_ROT</t>
+  </si>
+  <si>
+    <t>E3_FRT</t>
+  </si>
+  <si>
+    <t>E3_CER</t>
+  </si>
+  <si>
+    <t>E3_OTP</t>
+  </si>
+  <si>
+    <t>E3_OTRCARPRO</t>
+  </si>
+  <si>
+    <t>NO_OSS</t>
+  </si>
+  <si>
+    <t>NO_COLL_SDF</t>
+  </si>
+  <si>
+    <t>WWT</t>
+  </si>
+  <si>
+    <t>WWOT</t>
+  </si>
+  <si>
+    <t>E2_FOR</t>
+  </si>
+  <si>
+    <t>COLL_INORG</t>
+  </si>
+  <si>
+    <t>COLL_ORG</t>
+  </si>
+  <si>
+    <t>COLL_BLEND</t>
+  </si>
+  <si>
+    <t>NO_COLL</t>
+  </si>
+  <si>
+    <t>INORGSS</t>
+  </si>
+  <si>
+    <t>ORGSS</t>
+  </si>
+  <si>
+    <t>NOSS</t>
+  </si>
+  <si>
+    <t>SEWER</t>
+  </si>
+  <si>
+    <t>DIRECTW</t>
+  </si>
+  <si>
+    <t>CLK_PROD</t>
+  </si>
+  <si>
+    <t>E3_MTS</t>
+  </si>
+  <si>
+    <t>E3_SAB</t>
+  </si>
+  <si>
+    <t>E3_URB</t>
+  </si>
+  <si>
+    <t>E3_OLU</t>
+  </si>
+  <si>
+    <t>E3_CLF</t>
+  </si>
+  <si>
+    <t>E3_LATSHUM</t>
+  </si>
+  <si>
+    <t>E3_DCON</t>
+  </si>
+  <si>
+    <t>E3_SCON</t>
+  </si>
+  <si>
+    <t>E3_WET</t>
+  </si>
+  <si>
+    <t>E3_DRY</t>
+  </si>
+  <si>
+    <t>TSW</t>
+  </si>
+  <si>
+    <t>TWW</t>
+  </si>
+  <si>
+    <t>CEM_PROD</t>
+  </si>
+  <si>
+    <t>E5COMNGS</t>
+  </si>
+  <si>
+    <t>E5INDNGS</t>
+  </si>
+  <si>
+    <t>E5INDHYD</t>
+  </si>
+  <si>
+    <t>E5INDCOA</t>
+  </si>
+  <si>
+    <t>E5RESBIM</t>
+  </si>
+  <si>
+    <t>E5CONGSL</t>
+  </si>
+  <si>
+    <t>E5CONLPG</t>
+  </si>
+  <si>
+    <t>E5EXPNGS</t>
+  </si>
+  <si>
+    <t>E5EXPKER</t>
+  </si>
+  <si>
+    <t>E5EXPBIM</t>
+  </si>
+  <si>
+    <t>E5TOTGSL</t>
+  </si>
+  <si>
+    <t>E5TOTELE</t>
+  </si>
+  <si>
+    <t>E5TACGSL</t>
+  </si>
+  <si>
+    <t>E5AGRLPG</t>
   </si>
   <si>
     <t>E5AGRELE</t>
   </si>
   <si>
-    <t>ELE_TRANS</t>
-  </si>
-  <si>
-    <t>E5COMLPG</t>
-  </si>
-  <si>
-    <t>ELE_DIST</t>
-  </si>
-  <si>
-    <t>E5COMELE</t>
-  </si>
-  <si>
-    <t>HYD_G_PROD</t>
-  </si>
-  <si>
-    <t>E5INDDSL</t>
-  </si>
-  <si>
-    <t>HYD_DIST</t>
-  </si>
-  <si>
-    <t>E5INDLPG</t>
-  </si>
-  <si>
-    <t>PPDSL</t>
-  </si>
-  <si>
-    <t>E5INDELE</t>
-  </si>
-  <si>
-    <t>PPFOI</t>
-  </si>
-  <si>
-    <t>E5INDHYD</t>
-  </si>
-  <si>
-    <t>T5DSLAGR</t>
-  </si>
-  <si>
-    <t>E5INDBM</t>
-  </si>
-  <si>
-    <t>T5ELEAGR</t>
-  </si>
-  <si>
-    <t>E5INDBF</t>
-  </si>
-  <si>
-    <t>T5LPGCOM</t>
-  </si>
-  <si>
-    <t>E5INDFOI</t>
-  </si>
-  <si>
-    <t>T5ELECOM</t>
-  </si>
-  <si>
-    <t>E5PUBELE</t>
-  </si>
-  <si>
-    <t>T5DSLIND</t>
-  </si>
-  <si>
-    <t>E5RESLPG</t>
-  </si>
-  <si>
-    <t>T5LPGIND</t>
-  </si>
-  <si>
-    <t>E5RESELE</t>
-  </si>
-  <si>
-    <t>T5ELEIND</t>
-  </si>
-  <si>
-    <t>E5EXPELE</t>
-  </si>
-  <si>
-    <t>T5HYDIND</t>
-  </si>
-  <si>
-    <t>E4DSL_PRI</t>
-  </si>
-  <si>
-    <t>T5BMIND</t>
-  </si>
-  <si>
-    <t>E4GSL_PRI</t>
-  </si>
-  <si>
-    <t>T5BFIND</t>
-  </si>
-  <si>
-    <t>E4LPG_PRI</t>
-  </si>
-  <si>
-    <t>T5FOIIND</t>
-  </si>
-  <si>
-    <t>E4ELE_PRI</t>
-  </si>
-  <si>
-    <t>T5ELEPUB</t>
-  </si>
-  <si>
-    <t>E4DSL_PUB</t>
-  </si>
-  <si>
-    <t>T5LPGRES</t>
-  </si>
-  <si>
-    <t>E4LPG_PUB</t>
-  </si>
-  <si>
-    <t>T5ELERES</t>
-  </si>
-  <si>
-    <t>E4ELE_PUB</t>
-  </si>
-  <si>
-    <t>T5ELEEXP</t>
-  </si>
-  <si>
-    <t>E4HYD_PUB</t>
-  </si>
-  <si>
-    <t>T4DSL_PRI</t>
+    <t>E5AGRSGC</t>
+  </si>
+  <si>
+    <t>E5AGRRIC</t>
+  </si>
+  <si>
+    <t>E5AGRCER</t>
+  </si>
+  <si>
+    <t>E5AGRLEG</t>
+  </si>
+  <si>
+    <t>E5AGRROT</t>
+  </si>
+  <si>
+    <t>E5AGRFRT</t>
+  </si>
+  <si>
+    <t>E5AGROTP</t>
+  </si>
+  <si>
+    <t>E5GANOTRCARPRO</t>
+  </si>
+  <si>
+    <t>E5AGREXPSGC</t>
+  </si>
+  <si>
+    <t>E5AGREXPRIC</t>
+  </si>
+  <si>
+    <t>E5AGREXPCER</t>
+  </si>
+  <si>
+    <t>E5AGREXPLEG</t>
+  </si>
+  <si>
+    <t>E5AGREXPROT</t>
+  </si>
+  <si>
+    <t>E5AGREXPFRT</t>
+  </si>
+  <si>
+    <t>E5AGREXPOTP</t>
+  </si>
+  <si>
+    <t>E5GANEXPOTRCARPRO</t>
+  </si>
+  <si>
+    <t>E5COBMTS</t>
+  </si>
+  <si>
+    <t>E5COBSAB</t>
+  </si>
+  <si>
+    <t>E5COBURB</t>
+  </si>
+  <si>
+    <t>E5COBOLU</t>
+  </si>
+  <si>
+    <t>E5BOSLATHUM</t>
+  </si>
+  <si>
+    <t>E5BOSCLF</t>
+  </si>
+  <si>
+    <t>E5BOSLATSHUM</t>
+  </si>
+  <si>
+    <t>E5BOSDCON</t>
+  </si>
+  <si>
+    <t>E5BOSSCON</t>
+  </si>
+  <si>
+    <t>E5BOSWET</t>
+  </si>
+  <si>
+    <t>E5BOSDRY</t>
+  </si>
+  <si>
+    <t>E5TSWTSW</t>
+  </si>
+  <si>
+    <t>E5TWWTWW</t>
+  </si>
+  <si>
+    <t>E5CEM_PRODCEM_PROD</t>
   </si>
   <si>
     <t>E4GSL_PUB</t>
   </si>
   <si>
-    <t>T4GSL_PRI</t>
-  </si>
-  <si>
-    <t>E4ELE_HEA</t>
-  </si>
-  <si>
-    <t>T4LPG_PRI</t>
-  </si>
-  <si>
-    <t>E4DSL_HEA</t>
-  </si>
-  <si>
-    <t>T4ELE_PRI</t>
-  </si>
-  <si>
-    <t>E4LPG_HEA</t>
-  </si>
-  <si>
-    <t>T4DSL_PUB</t>
-  </si>
-  <si>
-    <t>E4HYD_HEA</t>
-  </si>
-  <si>
-    <t>T4LPG_PUB</t>
-  </si>
-  <si>
-    <t>E4DSL_LIG</t>
-  </si>
-  <si>
-    <t>T4ELE_PUB</t>
-  </si>
-  <si>
-    <t>E4GSL_LIG</t>
-  </si>
-  <si>
-    <t>T4HYD_PUB</t>
-  </si>
-  <si>
-    <t>E4LPG_LIG</t>
-  </si>
-  <si>
-    <t>T4GSL_PUB</t>
-  </si>
-  <si>
-    <t>E4ELE_LIG</t>
-  </si>
-  <si>
-    <t>T4ELE_HEA</t>
+    <t>E4NGS_PUB</t>
+  </si>
+  <si>
+    <t>E4DSL_TUR</t>
+  </si>
+  <si>
+    <t>E4GSL_TUR</t>
+  </si>
+  <si>
+    <t>E4LPG_TUR</t>
+  </si>
+  <si>
+    <t>E4ELE_TUR</t>
+  </si>
+  <si>
+    <t>E4NGS_TUR</t>
+  </si>
+  <si>
+    <t>E4GSL_HEA</t>
+  </si>
+  <si>
+    <t>E4NGS_HEA</t>
+  </si>
+  <si>
+    <t>E4HYD_LIG</t>
+  </si>
+  <si>
+    <t>E5TRTAX</t>
   </si>
   <si>
     <t>E5TRSUV</t>
   </si>
   <si>
-    <t>T4DSL_HEA</t>
-  </si>
-  <si>
-    <t>E5TRSED</t>
-  </si>
-  <si>
-    <t>T4LPG_HEA</t>
-  </si>
-  <si>
-    <t>E5TRMOT</t>
-  </si>
-  <si>
-    <t>T4HYD_HEA</t>
-  </si>
-  <si>
-    <t>E5TRBUS</t>
-  </si>
-  <si>
-    <t>T4DSL_LIG</t>
-  </si>
-  <si>
-    <t>E5TRMBUS</t>
-  </si>
-  <si>
-    <t>T4GSL_LIG</t>
-  </si>
-  <si>
-    <t>E5TRTAX</t>
-  </si>
-  <si>
-    <t>T4LPG_LIG</t>
-  </si>
-  <si>
-    <t>E5TRXTRAI</t>
-  </si>
-  <si>
-    <t>T4ELE_LIG</t>
-  </si>
-  <si>
-    <t>E5TRXTRAIFRE</t>
-  </si>
-  <si>
-    <t>TRSUVDSL</t>
-  </si>
-  <si>
-    <t>E5TRYTK</t>
-  </si>
-  <si>
-    <t>TRSUVGSL</t>
-  </si>
-  <si>
-    <t>E5TRYLF</t>
-  </si>
-  <si>
-    <t>TRSUVLPG</t>
-  </si>
-  <si>
-    <t>E6TDPASPRI</t>
-  </si>
-  <si>
-    <t>TRSUVELE</t>
-  </si>
-  <si>
-    <t>E6TDPASPUB</t>
-  </si>
-  <si>
-    <t>TRSUVPHG</t>
-  </si>
-  <si>
-    <t>TRSUVPHD</t>
-  </si>
-  <si>
-    <t>TRSEDGSL</t>
-  </si>
-  <si>
-    <t>TRSEDELE</t>
-  </si>
-  <si>
-    <t>TRSEDPHG</t>
-  </si>
-  <si>
-    <t>TRMOTGSL</t>
-  </si>
-  <si>
-    <t>TRMOTELE</t>
-  </si>
-  <si>
-    <t>TRBUSDSL</t>
-  </si>
-  <si>
-    <t>TRBUSLPG</t>
-  </si>
-  <si>
-    <t>TRBUSELE</t>
-  </si>
-  <si>
-    <t>TRBUSHYD</t>
-  </si>
-  <si>
-    <t>TRBUSPHD</t>
-  </si>
-  <si>
-    <t>TRMBUSDSL</t>
-  </si>
-  <si>
-    <t>TRMBUSLPG</t>
-  </si>
-  <si>
-    <t>TRMBUSELE</t>
-  </si>
-  <si>
-    <t>TRMBUSHYD</t>
-  </si>
-  <si>
-    <t>TRMBUSPHD</t>
-  </si>
-  <si>
-    <t>TRTAXDSL</t>
-  </si>
-  <si>
-    <t>TRTAXGSL</t>
-  </si>
-  <si>
-    <t>TRTAXELE</t>
-  </si>
-  <si>
-    <t>TRTAXPHG</t>
-  </si>
-  <si>
-    <t>TRTAXPHD</t>
-  </si>
-  <si>
-    <t>TRXTRAIDSL</t>
-  </si>
-  <si>
-    <t>TRXTRAIELE</t>
-  </si>
-  <si>
-    <t>TRXTRAIFREELE</t>
-  </si>
-  <si>
-    <t>TRYTKDSL</t>
-  </si>
-  <si>
-    <t>TRYTKLPG</t>
-  </si>
-  <si>
-    <t>TRYTKELE</t>
-  </si>
-  <si>
-    <t>TRYTKHYD</t>
-  </si>
-  <si>
-    <t>TRYTKPHD</t>
-  </si>
-  <si>
-    <t>TRYLFDSL</t>
-  </si>
-  <si>
-    <t>TRYLFGSL</t>
-  </si>
-  <si>
-    <t>TRYLFLPG</t>
-  </si>
-  <si>
-    <t>TRYLFELE</t>
-  </si>
-  <si>
-    <t>TRYLFPHG</t>
-  </si>
-  <si>
-    <t>TRYLFPHD</t>
-  </si>
-  <si>
-    <t>Techs_SUVMIV</t>
-  </si>
-  <si>
-    <t>Techs_Sedan</t>
-  </si>
-  <si>
-    <t>Techs_Trains_Freight</t>
-  </si>
-  <si>
-    <t>E6TRNOMOT</t>
-  </si>
-  <si>
-    <t>TRANOMOTBike</t>
-  </si>
-  <si>
-    <t>TRANOMOTWalk</t>
-  </si>
-  <si>
-    <t>TRANPUB</t>
-  </si>
-  <si>
-    <t>TRANRAILINF</t>
-  </si>
-  <si>
-    <t>TRANRAILCAR</t>
-  </si>
-  <si>
-    <t>TRANE6NOMOT</t>
-  </si>
-  <si>
-    <t>TRANRAILFREINF</t>
-  </si>
-  <si>
-    <t>PPPVDS</t>
-  </si>
-  <si>
-    <t>E7ELE</t>
-  </si>
-  <si>
-    <t>PPPVTHYD</t>
+    <t>E5TRBTUR</t>
+  </si>
+  <si>
+    <t>E6TDPASTUR</t>
+  </si>
+  <si>
+    <t>salud_residuos</t>
+  </si>
+  <si>
+    <t>FERT_ORG</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>contam_agua</t>
+  </si>
+  <si>
+    <t>turismo_residuos</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>PROD_CAL</t>
+  </si>
+  <si>
+    <t>PROD_FERRO</t>
+  </si>
+  <si>
+    <t>REFR_AC</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>IWW</t>
+  </si>
+  <si>
+    <t>LANDFILL_ELEC</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Otro</t>
+  </si>
+  <si>
+    <t>Waste</t>
+  </si>
+  <si>
+    <t>IPPU</t>
+  </si>
+  <si>
+    <t>IMP_STOR</t>
+  </si>
+  <si>
+    <t>R134a</t>
+  </si>
+  <si>
+    <t>R404A</t>
+  </si>
+  <si>
+    <t>R410A</t>
+  </si>
+  <si>
+    <t>SUB134a</t>
+  </si>
+  <si>
+    <t>SUB404A</t>
+  </si>
+  <si>
+    <t>SUB410A</t>
+  </si>
+  <si>
+    <t>COPROC</t>
+  </si>
+  <si>
+    <t>INCIN</t>
+  </si>
+  <si>
+    <t>CO2e_PP</t>
+  </si>
+  <si>
+    <t>SEWER_NO_T</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>AFOLU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -923,16 +1936,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -940,12 +1985,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1226,26 +2294,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L113"/>
+  <dimension ref="A1:L304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.53515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="16.84375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.4609375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.53515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.3046875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1283,7 +2353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1321,7 +2391,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1330,8 +2400,8 @@
         <v>33</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
-        <v>110</v>
+        <f>+COUNTA(C4:C1048576)</f>
+        <v>301</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
@@ -1339,11 +2409,11 @@
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>205</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
@@ -1370,863 +2440,2266 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2018</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>249</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>599</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2019</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>218</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2020</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>251</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>2021</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>221</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>252</v>
       </c>
       <c r="F7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2022</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="E8" t="s">
-        <v>141</v>
+        <v>253</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>2023</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>356</v>
       </c>
       <c r="E9" t="s">
-        <v>290</v>
+        <v>502</v>
       </c>
       <c r="F9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>2024</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>279</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>280</v>
       </c>
       <c r="F10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>2025</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>2026</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+      <c r="F12" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>2027</v>
       </c>
       <c r="C13" t="s">
-        <v>291</v>
+        <v>119</v>
       </c>
       <c r="E13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>2028</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+        <v>503</v>
+      </c>
+      <c r="F14" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>2029</v>
       </c>
       <c r="C15" t="s">
-        <v>289</v>
+        <v>213</v>
       </c>
       <c r="E15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>2030</v>
       </c>
       <c r="C16" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>2031</v>
       </c>
       <c r="C17" t="s">
-        <v>154</v>
+        <v>215</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>2032</v>
       </c>
       <c r="C18" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="E18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>2033</v>
       </c>
       <c r="C19" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="E19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>2034</v>
       </c>
       <c r="C20" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>2035</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="E21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>2036</v>
       </c>
       <c r="C22" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="E22" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>2037</v>
       </c>
       <c r="C23" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="E23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>2038</v>
       </c>
       <c r="C24" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="E24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>2039</v>
       </c>
       <c r="C25" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="E25" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>2040</v>
       </c>
       <c r="C26" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="E26" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>2041</v>
       </c>
       <c r="C27" t="s">
-        <v>174</v>
+        <v>314</v>
       </c>
       <c r="E27" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>2042</v>
       </c>
       <c r="C28" t="s">
-        <v>176</v>
+        <v>357</v>
       </c>
       <c r="E28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>2043</v>
       </c>
       <c r="C29" t="s">
-        <v>178</v>
+        <v>315</v>
       </c>
       <c r="E29" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>2044</v>
       </c>
       <c r="C30" t="s">
-        <v>180</v>
+        <v>358</v>
       </c>
       <c r="E30" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>2045</v>
       </c>
       <c r="C31" t="s">
-        <v>182</v>
+        <v>318</v>
       </c>
       <c r="E31" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>2046</v>
       </c>
       <c r="C32" t="s">
-        <v>184</v>
+        <v>316</v>
       </c>
       <c r="E32" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>2047</v>
       </c>
       <c r="C33" t="s">
-        <v>186</v>
+        <v>317</v>
       </c>
       <c r="E33" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>2048</v>
       </c>
       <c r="C34" t="s">
-        <v>188</v>
+        <v>359</v>
       </c>
       <c r="E34" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>2049</v>
       </c>
       <c r="C35" t="s">
-        <v>190</v>
+        <v>360</v>
       </c>
       <c r="E35" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>2050</v>
       </c>
       <c r="C36" t="s">
+        <v>361</v>
+      </c>
+      <c r="E36" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>362</v>
+      </c>
+      <c r="E37" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>363</v>
+      </c>
+      <c r="E38" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>319</v>
+      </c>
+      <c r="E39" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>320</v>
+      </c>
+      <c r="E40" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>321</v>
+      </c>
+      <c r="E41" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>364</v>
+      </c>
+      <c r="E42" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>322</v>
+      </c>
+      <c r="E43" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>323</v>
+      </c>
+      <c r="E44" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>365</v>
+      </c>
+      <c r="E45" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>366</v>
+      </c>
+      <c r="E46" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>367</v>
+      </c>
+      <c r="E47" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>368</v>
+      </c>
+      <c r="E48" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>369</v>
+      </c>
+      <c r="E49" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>370</v>
+      </c>
+      <c r="E50" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>371</v>
+      </c>
+      <c r="E51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>372</v>
+      </c>
+      <c r="E52" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>373</v>
+      </c>
+      <c r="E53" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>374</v>
+      </c>
+      <c r="E54" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>375</v>
+      </c>
+      <c r="E55" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>376</v>
+      </c>
+      <c r="E56" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>377</v>
+      </c>
+      <c r="E57" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>378</v>
+      </c>
+      <c r="E58" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>626</v>
+      </c>
+      <c r="E59" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>379</v>
+      </c>
+      <c r="E60" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>380</v>
+      </c>
+      <c r="E61" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>616</v>
+      </c>
+      <c r="E62" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>381</v>
+      </c>
+      <c r="E63" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>382</v>
+      </c>
+      <c r="E64" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>383</v>
+      </c>
+      <c r="E65" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>384</v>
+      </c>
+      <c r="E66" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>223</v>
+      </c>
+      <c r="E67" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>224</v>
+      </c>
+      <c r="E68" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>225</v>
+      </c>
+      <c r="E69" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>385</v>
+      </c>
+      <c r="E70" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>386</v>
+      </c>
+      <c r="E71" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>387</v>
+      </c>
+      <c r="E72" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>388</v>
+      </c>
+      <c r="E73" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>389</v>
+      </c>
+      <c r="E74" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>390</v>
+      </c>
+      <c r="E75" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>143</v>
+      </c>
+      <c r="E76" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>147</v>
+      </c>
+      <c r="E77" t="s">
+        <v>533</v>
+      </c>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>145</v>
+      </c>
+      <c r="E78" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>149</v>
+      </c>
+      <c r="E79" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>324</v>
+      </c>
+      <c r="E80" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>391</v>
+      </c>
+      <c r="E81" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>392</v>
+      </c>
+      <c r="E82" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>393</v>
+      </c>
+      <c r="E83" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>394</v>
+      </c>
+      <c r="E84" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>395</v>
+      </c>
+      <c r="E85" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>396</v>
+      </c>
+      <c r="E86" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>397</v>
+      </c>
+      <c r="E87" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>398</v>
+      </c>
+      <c r="E88" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>399</v>
+      </c>
+      <c r="E89" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>400</v>
+      </c>
+      <c r="E90" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>401</v>
+      </c>
+      <c r="E91" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>402</v>
+      </c>
+      <c r="E92" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>403</v>
+      </c>
+      <c r="E93" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>404</v>
+      </c>
+      <c r="E94" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>325</v>
+      </c>
+      <c r="E95" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>405</v>
+      </c>
+      <c r="E96" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>328</v>
+      </c>
+      <c r="E97" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>326</v>
+      </c>
+      <c r="E98" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>327</v>
+      </c>
+      <c r="E99" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>406</v>
+      </c>
+      <c r="E100" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>407</v>
+      </c>
+      <c r="E101" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>408</v>
+      </c>
+      <c r="E102" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>409</v>
+      </c>
+      <c r="E103" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
+        <v>410</v>
+      </c>
+      <c r="E104" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C105" t="s">
+        <v>329</v>
+      </c>
+      <c r="E105" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>330</v>
+      </c>
+      <c r="E106" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="107" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C107" t="s">
+        <v>331</v>
+      </c>
+      <c r="E107" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>332</v>
+      </c>
+      <c r="E108" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>411</v>
+      </c>
+      <c r="E109" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>333</v>
+      </c>
+      <c r="E110" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="111" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>412</v>
+      </c>
+      <c r="E111" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="112" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>413</v>
+      </c>
+      <c r="E112" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="113" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>414</v>
+      </c>
+      <c r="E113" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="114" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
+        <v>415</v>
+      </c>
+      <c r="E114" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="115" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>416</v>
+      </c>
+      <c r="E115" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
+        <v>417</v>
+      </c>
+      <c r="E116" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="117" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>418</v>
+      </c>
+      <c r="E117" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>419</v>
+      </c>
+      <c r="E118" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="119" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>420</v>
+      </c>
+      <c r="E119" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="120" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>421</v>
+      </c>
+      <c r="E120" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="121" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>422</v>
+      </c>
+      <c r="E121" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="122" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C122" t="s">
+        <v>423</v>
+      </c>
+      <c r="E122" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="123" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C123" t="s">
+        <v>424</v>
+      </c>
+      <c r="E123" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="124" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C124" t="s">
+        <v>425</v>
+      </c>
+      <c r="E124" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="125" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C125" t="s">
+        <v>426</v>
+      </c>
+      <c r="E125" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="126" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C126" t="s">
+        <v>427</v>
+      </c>
+      <c r="E126" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="127" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C127" t="s">
+        <v>428</v>
+      </c>
+      <c r="E127" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="128" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C128" t="s">
+        <v>354</v>
+      </c>
+      <c r="E128" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="129" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C129" t="s">
+        <v>226</v>
+      </c>
+      <c r="E129" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="130" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C130" t="s">
+        <v>429</v>
+      </c>
+      <c r="E130" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="131" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C131" t="s">
+        <v>152</v>
+      </c>
+      <c r="E131" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="132" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C132" t="s">
+        <v>154</v>
+      </c>
+      <c r="E132" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="133" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C133" t="s">
+        <v>227</v>
+      </c>
+      <c r="E133" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="134" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C134" t="s">
+        <v>155</v>
+      </c>
+      <c r="E134" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="135" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C135" t="s">
+        <v>228</v>
+      </c>
+      <c r="E135" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="136" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C136" t="s">
+        <v>430</v>
+      </c>
+      <c r="E136" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="137" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C137" t="s">
+        <v>157</v>
+      </c>
+      <c r="E137" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="138" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C138" t="s">
+        <v>159</v>
+      </c>
+      <c r="E138" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="139" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C139" t="s">
+        <v>431</v>
+      </c>
+      <c r="E139" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="140" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C140" t="s">
+        <v>229</v>
+      </c>
+      <c r="E140" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="141" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C141" t="s">
+        <v>230</v>
+      </c>
+      <c r="E141" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="142" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C142" t="s">
+        <v>432</v>
+      </c>
+      <c r="E142" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="143" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C143" t="s">
+        <v>163</v>
+      </c>
+      <c r="E143" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="144" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C144" t="s">
+        <v>166</v>
+      </c>
+      <c r="E144" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="145" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C145" t="s">
+        <v>168</v>
+      </c>
+      <c r="E145" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="146" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C146" t="s">
+        <v>231</v>
+      </c>
+      <c r="E146" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="147" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C147" t="s">
+        <v>232</v>
+      </c>
+      <c r="E147" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="148" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C148" t="s">
+        <v>433</v>
+      </c>
+      <c r="E148" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="149" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C149" t="s">
+        <v>434</v>
+      </c>
+      <c r="E149" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="150" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C150" t="s">
+        <v>435</v>
+      </c>
+      <c r="E150" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="151" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C151" t="s">
+        <v>436</v>
+      </c>
+      <c r="E151" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="152" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C152" t="s">
+        <v>437</v>
+      </c>
+      <c r="E152" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="153" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C153" t="s">
+        <v>438</v>
+      </c>
+      <c r="E153" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="154" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C154" t="s">
+        <v>233</v>
+      </c>
+      <c r="E154" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="155" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C155" t="s">
+        <v>439</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="156" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C156" t="s">
+        <v>440</v>
+      </c>
+      <c r="E156" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="157" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C157" t="s">
+        <v>441</v>
+      </c>
+      <c r="E157" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="158" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C158" t="s">
+        <v>234</v>
+      </c>
+      <c r="E158" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="159" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C159" t="s">
+        <v>355</v>
+      </c>
+      <c r="E159" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="160" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C160" t="s">
+        <v>442</v>
+      </c>
+      <c r="E160" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="161" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C161" t="s">
+        <v>443</v>
+      </c>
+      <c r="E161" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="162" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C162" t="s">
+        <v>444</v>
+      </c>
+      <c r="E162" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="163" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C163" t="s">
+        <v>445</v>
+      </c>
+      <c r="E163" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="164" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C164" t="s">
+        <v>446</v>
+      </c>
+      <c r="E164" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="165" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C165" t="s">
+        <v>334</v>
+      </c>
+      <c r="E165" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="166" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C166" t="s">
+        <v>335</v>
+      </c>
+      <c r="E166" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="167" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C167" t="s">
+        <v>336</v>
+      </c>
+      <c r="E167" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="168" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C168" t="s">
+        <v>337</v>
+      </c>
+      <c r="E168" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="169" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C169" t="s">
+        <v>447</v>
+      </c>
+      <c r="E169" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="170" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C170" t="s">
+        <v>448</v>
+      </c>
+      <c r="E170" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="171" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C171" t="s">
+        <v>449</v>
+      </c>
+      <c r="E171" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="172" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C172" t="s">
+        <v>450</v>
+      </c>
+      <c r="E172" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="173" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C173" t="s">
+        <v>338</v>
+      </c>
+      <c r="E173" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="174" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C174" t="s">
+        <v>339</v>
+      </c>
+      <c r="E174" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="175" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C175" t="s">
+        <v>340</v>
+      </c>
+      <c r="E175" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="176" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C176" t="s">
+        <v>341</v>
+      </c>
+      <c r="E176" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="177" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C177" t="s">
+        <v>451</v>
+      </c>
+      <c r="E177" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="178" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C178" t="s">
+        <v>342</v>
+      </c>
+      <c r="E178" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="179" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C179" t="s">
+        <v>452</v>
+      </c>
+      <c r="E179" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="180" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C180" t="s">
+        <v>345</v>
+      </c>
+      <c r="E180" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="181" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C181" t="s">
+        <v>453</v>
+      </c>
+      <c r="E181" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="182" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C182" t="s">
+        <v>454</v>
+      </c>
+      <c r="E182" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="183" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C183" t="s">
+        <v>343</v>
+      </c>
+      <c r="E183" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="184" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C184" t="s">
+        <v>344</v>
+      </c>
+      <c r="E184" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="185" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C185" t="s">
+        <v>346</v>
+      </c>
+      <c r="E185" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="186" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C186" t="s">
+        <v>455</v>
+      </c>
+      <c r="E186" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="187" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C187" t="s">
+        <v>456</v>
+      </c>
+      <c r="E187" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="188" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C188" t="s">
+        <v>457</v>
+      </c>
+      <c r="E188" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="189" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C189" t="s">
+        <v>458</v>
+      </c>
+      <c r="E189" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="190" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C190" t="s">
+        <v>347</v>
+      </c>
+      <c r="E190" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="191" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C191" t="s">
+        <v>348</v>
+      </c>
+      <c r="E191" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="192" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C192" t="s">
+        <v>349</v>
+      </c>
+      <c r="E192" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="193" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C193" t="s">
+        <v>350</v>
+      </c>
+      <c r="E193" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="194" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C194" t="s">
+        <v>459</v>
+      </c>
+      <c r="E194" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="195" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C195" t="s">
+        <v>351</v>
+      </c>
+      <c r="E195" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="196" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C196" t="s">
+        <v>460</v>
+      </c>
+      <c r="E196" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="197" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C197" t="s">
+        <v>461</v>
+      </c>
+      <c r="E197" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="198" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C198" t="s">
+        <v>462</v>
+      </c>
+      <c r="E198" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="199" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C199" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E199" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="200" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C200" t="s">
+        <v>464</v>
+      </c>
+      <c r="E200" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="201" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C201" t="s">
+        <v>465</v>
+      </c>
+      <c r="E201" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="202" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C202" t="s">
+        <v>466</v>
+      </c>
+      <c r="E202" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="203" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C203" t="s">
+        <v>467</v>
+      </c>
+      <c r="E203" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="204" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C204" t="s">
+        <v>468</v>
+      </c>
+      <c r="E204" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="205" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C205" t="s">
+        <v>469</v>
+      </c>
+      <c r="E205" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="206" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C206" t="s">
+        <v>470</v>
+      </c>
+      <c r="E206" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="207" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C207" t="s">
+        <v>471</v>
+      </c>
+      <c r="E207" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="208" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C208" t="s">
+        <v>472</v>
+      </c>
+      <c r="E208" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C209" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C210" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C211" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C212" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C213" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C214" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C215" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C216" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C217" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C218" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C219" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C220" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C221" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C222" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C223" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C224" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C225" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C226" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C227" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C228" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C229" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C230" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C231" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C232" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C233" t="s">
         <v>192</v>
       </c>
-      <c r="E36" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C37" t="s">
-        <v>194</v>
-      </c>
-      <c r="E37" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C38" t="s">
-        <v>196</v>
-      </c>
-      <c r="E38" t="s">
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C234" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C235" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C236" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C237" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C238" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C239" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C240" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C241" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C242" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C243" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C39" t="s">
-        <v>198</v>
-      </c>
-      <c r="E39" t="s">
+    <row r="244" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C244" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C245" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C246" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C247" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C248" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C249" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C250" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C251" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C252" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C253" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C254" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C255" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C256" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C257" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C258" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C259" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C260" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C261" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C262" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C263" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C264" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C40" t="s">
-        <v>200</v>
-      </c>
-      <c r="E40" t="s">
+    <row r="265" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C265" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C266" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="267" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C267" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C41" t="s">
-        <v>202</v>
-      </c>
-      <c r="E41" t="s">
+    <row r="268" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C268" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C269" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C42" t="s">
-        <v>204</v>
-      </c>
-      <c r="E42" t="s">
+    <row r="270" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C270" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C271" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C272" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C43" t="s">
-        <v>206</v>
-      </c>
-      <c r="E43" t="s">
+    <row r="273" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C273" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C274" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C44" t="s">
-        <v>208</v>
-      </c>
-      <c r="E44" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C45" t="s">
+    <row r="275" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C275" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C276" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C277" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C278" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C279" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C280" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C281" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C282" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C283" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C284" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C285" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C286" t="s">
         <v>210</v>
       </c>
-      <c r="E45" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C46" t="s">
-        <v>212</v>
-      </c>
-      <c r="E46" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C47" t="s">
-        <v>214</v>
-      </c>
-      <c r="E47" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C48" t="s">
-        <v>216</v>
-      </c>
-      <c r="E48" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C49" t="s">
-        <v>218</v>
-      </c>
-      <c r="E49" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C50" t="s">
-        <v>220</v>
-      </c>
-      <c r="E50" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C51" t="s">
-        <v>222</v>
-      </c>
-      <c r="E51" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C52" t="s">
-        <v>224</v>
-      </c>
-      <c r="E52" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C53" t="s">
-        <v>226</v>
-      </c>
-      <c r="E53" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C54" t="s">
-        <v>228</v>
-      </c>
-      <c r="E54" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C55" t="s">
-        <v>230</v>
-      </c>
-      <c r="E55" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C56" t="s">
-        <v>232</v>
-      </c>
-      <c r="E56" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C57" t="s">
-        <v>234</v>
-      </c>
-      <c r="E57" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C58" t="s">
-        <v>236</v>
-      </c>
-      <c r="E58" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C59" t="s">
-        <v>238</v>
-      </c>
-      <c r="E59" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C60" t="s">
-        <v>240</v>
-      </c>
-      <c r="E60" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C61" t="s">
-        <v>242</v>
-      </c>
-      <c r="E61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C62" t="s">
-        <v>243</v>
-      </c>
-      <c r="E62" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C63" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C64" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C65" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C66" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C67" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C68" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C69" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C70" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C71" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C72" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C73" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C74" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C75" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C76" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C77" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C78" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C79" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C80" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C81" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C82" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C83" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C84" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C85" t="s">
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C287" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C288" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C289" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C86" t="s">
+    <row r="290" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C290" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C87" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C88" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C89" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C90" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C91" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C92" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C93" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C94" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C95" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C96" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C97" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C98" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C99" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C100" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C101" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C102" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C103" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C104" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C105" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C106" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C107" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C108" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C109" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C110" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C111" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C112" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C113" t="s">
-        <v>288</v>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C291" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C292" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C293" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C294" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C295" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C296" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C297" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C298" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C299" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C300" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C301" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C302" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C303" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C304" t="s">
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -2242,39 +4715,39 @@
       <selection activeCell="AE3" sqref="B3:AE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.07421875" customWidth="1"/>
-    <col min="3" max="3" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.07421875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.84375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.69140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="19.69140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.07421875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.69140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.84375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.69140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.3046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.07421875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.3046875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.69140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.07421875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="31" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.53515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="35.69140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="35.84375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="40.69140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="40.69140625" customWidth="1"/>
-    <col min="25" max="25" width="18.53515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.3046875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.53515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.69140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.84375" customWidth="1"/>
+    <col min="20" max="20" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="40.6640625" customWidth="1"/>
+    <col min="25" max="25" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.88671875" customWidth="1"/>
     <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2297,13 +4770,13 @@
         <v>49</v>
       </c>
       <c r="Y1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AB1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2326,7 +4799,7 @@
         <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I2" t="s">
         <v>36</v>
@@ -2359,31 +4832,31 @@
         <v>47</v>
       </c>
       <c r="S2" t="s">
+        <v>108</v>
+      </c>
+      <c r="T2" t="s">
         <v>109</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>112</v>
+      </c>
+      <c r="V2" t="s">
         <v>110</v>
-      </c>
-      <c r="U2" t="s">
-        <v>113</v>
-      </c>
-      <c r="V2" t="s">
-        <v>111</v>
       </c>
       <c r="W2" t="s">
         <v>48</v>
       </c>
       <c r="X2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z2" t="s">
         <v>115</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>116</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>117</v>
       </c>
       <c r="AB2" t="s">
         <v>51</v>
@@ -2392,13 +4865,13 @@
         <v>52</v>
       </c>
       <c r="AD2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2523,7 +4996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>24</v>
       </c>
@@ -2615,7 +5088,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -2701,7 +5174,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>20</v>
       </c>
@@ -2766,7 +5239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>20</v>
       </c>
@@ -2786,7 +5259,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="L8" t="s">
         <v>20</v>
       </c>
@@ -2811,43 +5284,43 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.69140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.3046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.69140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.69140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.3046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.53515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.4609375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.53515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.4609375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.4609375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.53515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.3046875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.69140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.84375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.4609375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.53515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.3046875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.53515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.69140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.84375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.3046875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="21" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.07421875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.3046875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.69140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="29.84375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.3046875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2864,10 +5337,10 @@
         <v>78</v>
       </c>
       <c r="AH1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -2968,40 +5441,40 @@
         <v>88</v>
       </c>
       <c r="AH2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI2" t="s">
         <v>98</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>99</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>100</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>101</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>102</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>103</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>104</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>105</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>106</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>107</v>
       </c>
-      <c r="AR2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3178,7 +5651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -3309,7 +5782,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>24</v>
       </c>
@@ -3440,7 +5913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -3553,7 +6026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -3609,7 +6082,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="H8" t="s">
         <v>20</v>
       </c>
@@ -3635,7 +6108,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
         <v>20</v>
       </c>
@@ -3648,11 +6121,3371 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B380EC-F6E5-4369-BC41-BC40A47B4895}">
+  <dimension ref="A1:C302"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C302" xr:uid="{51B380EC-F6E5-4369-BC41-BC40A47B4895}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BAD73B84EC2FBA4AB6031CFB79C3D0E0" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="371947e8e2760f0f8e8f59c32e4ad2a0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c4f98862-adfd-4d9c-a945-852f80f0eb51" xmlns:ns3="b9355cc9-2d41-4aa9-bfbc-bd016a1e1a01" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a059f82d0b353b49693c069f8347eedf" ns2:_="" ns3:_="">
-    <xsd:import namespace="c4f98862-adfd-4d9c-a945-852f80f0eb51"/>
-    <xsd:import namespace="b9355cc9-2d41-4aa9-bfbc-bd016a1e1a01"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c2c21c4-f980-47d5-be5b-1bb924ee96a2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="27b2dddd8e7dbb40e638da4098fa8bb9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d3d23b2622c6bf8a24212abcb0f9b2c" ns2:_="" ns3:_="">
+    <xsd:import namespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
+    <xsd:import namespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -3661,15 +9494,17 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
@@ -3678,7 +9513,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c4f98862-adfd-4d9c-a945-852f80f0eb51" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -3691,55 +9526,67 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="13" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="17" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="20" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b9355cc9-2d41-4aa9-bfbc-bd016a1e1a01" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -3758,7 +9605,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -3775,8 +9622,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -3865,19 +9712,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AC0D922-EF0B-4CD1-ABA9-DA224A49BD67}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E67016B-2BB4-478C-AF15-1A9FF8562EBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23DDE3BA-E11E-4777-99A5-736CD5597452}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C8338AF-8AC2-43D7-8F90-72D0B1807480}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F0FF028-8913-42C3-AE55-CE0A7DA7AE6F}"/>
 </file>
--- a/t3a_experiments/Experiment_1/0_From_Confection/B1_Model_Structure.xlsx
+++ b/t3a_experiments/Experiment_1/0_From_Confection/B1_Model_Structure.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{838D6DA1-B740-476B-8C62-57EBF32FF73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99262C02-0672-473E-ACC0-8C46521F3303}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{838D6DA1-B740-476B-8C62-57EBF32FF73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EF172DB-2227-4B38-B172-BE178C347DD2}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sets" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="630">
   <si>
     <t>set</t>
   </si>
@@ -1922,6 +1922,9 @@
   </si>
   <si>
     <t>AFOLU</t>
+  </si>
+  <si>
+    <t>CO2e_DE</t>
   </si>
 </sst>
 </file>
@@ -2297,7 +2300,7 @@
   <dimension ref="A1:L304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2413,7 +2416,7 @@
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
@@ -2612,6 +2615,9 @@
       </c>
       <c r="E15" t="s">
         <v>245</v>
+      </c>
+      <c r="F15" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -9472,16 +9478,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c2c21c4-f980-47d5-be5b-1bb924ee96a2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="27b2dddd8e7dbb40e638da4098fa8bb9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d3d23b2622c6bf8a24212abcb0f9b2c" ns2:_="" ns3:_="">
     <xsd:import namespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
@@ -9712,6 +9708,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c2c21c4-f980-47d5-be5b-1bb924ee96a2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E67016B-2BB4-478C-AF15-1A9FF8562EBE}">
   <ds:schemaRefs>
@@ -9721,6 +9727,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3851087F-07D3-4405-A433-7A0ADDCA2D10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
+    <ds:schemaRef ds:uri="1b6bb729-2ef5-410d-b4d4-7ced22c361d1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C8338AF-8AC2-43D7-8F90-72D0B1807480}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9728,8 +9753,4 @@
     <ds:schemaRef ds:uri="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F0FF028-8913-42C3-AE55-CE0A7DA7AE6F}"/>
 </file>
--- a/t3a_experiments/Experiment_1/0_From_Confection/B1_Model_Structure.xlsx
+++ b/t3a_experiments/Experiment_1/0_From_Confection/B1_Model_Structure.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{838D6DA1-B740-476B-8C62-57EBF32FF73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EF172DB-2227-4B38-B172-BE178C347DD2}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{838D6DA1-B740-476B-8C62-57EBF32FF73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07790577-6CD0-4302-AA51-A99AF909A742}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
     <sheet name="sector" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">sector!$A$1:$C$302</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">sector!$A$1:$C$304</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sets!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="632">
   <si>
     <t>set</t>
   </si>
@@ -1925,13 +1925,19 @@
   </si>
   <si>
     <t>CO2e_DE</t>
+  </si>
+  <si>
+    <t>TRTAXELE</t>
+  </si>
+  <si>
+    <t>TRSUVELE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1946,6 +1952,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2007,7 +2019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2017,6 +2029,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2297,13 +2310,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L304"/>
+  <dimension ref="A1:L306"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C210" sqref="C210:C292"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
@@ -2404,7 +2417,7 @@
       </c>
       <c r="C3">
         <f>+COUNTA(C4:C1048576)</f>
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
@@ -4265,17 +4278,17 @@
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C216" t="s">
-        <v>282</v>
+        <v>180</v>
       </c>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C217" t="s">
-        <v>177</v>
+        <v>282</v>
       </c>
     </row>
     <row r="218" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C218" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.3">
@@ -4395,316 +4408,326 @@
     </row>
     <row r="242" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C242" t="s">
-        <v>198</v>
+        <v>630</v>
       </c>
     </row>
     <row r="243" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C243" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="244" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C244" t="s">
-        <v>486</v>
+        <v>199</v>
       </c>
     </row>
     <row r="245" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C245" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="246" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C246" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="247" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C247" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="248" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C248" t="s">
-        <v>271</v>
+        <v>631</v>
       </c>
     </row>
     <row r="249" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C249" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="250" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C250" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="251" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C251" t="s">
-        <v>273</v>
+        <v>490</v>
       </c>
     </row>
     <row r="252" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C252" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="253" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C253" t="s">
-        <v>491</v>
+        <v>273</v>
       </c>
     </row>
     <row r="254" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C254" t="s">
-        <v>492</v>
+        <v>274</v>
       </c>
     </row>
     <row r="255" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C255" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="256" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C256" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="257" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C257" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="258" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C258" t="s">
-        <v>268</v>
+        <v>494</v>
       </c>
     </row>
     <row r="259" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C259" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="260" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C260" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="261" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C261" t="s">
-        <v>270</v>
+        <v>496</v>
       </c>
     </row>
     <row r="262" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C262" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
     </row>
     <row r="263" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C263" t="s">
-        <v>200</v>
+        <v>270</v>
       </c>
     </row>
     <row r="264" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C264" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
     </row>
     <row r="265" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C265" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="266" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C266" t="s">
-        <v>497</v>
+        <v>201</v>
       </c>
     </row>
     <row r="267" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C267" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="268" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C268" t="s">
-        <v>204</v>
+        <v>497</v>
       </c>
     </row>
     <row r="269" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C269" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="270" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C270" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
     </row>
     <row r="271" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C271" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="272" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C272" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
     </row>
     <row r="273" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C273" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="274" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C274" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="275" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C275" t="s">
-        <v>498</v>
+        <v>208</v>
       </c>
     </row>
     <row r="276" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C276" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
     </row>
     <row r="277" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C277" t="s">
-        <v>243</v>
+        <v>498</v>
       </c>
     </row>
     <row r="278" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C278" t="s">
-        <v>499</v>
+        <v>242</v>
       </c>
     </row>
     <row r="279" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C279" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
     </row>
     <row r="280" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C280" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="281" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C281" t="s">
-        <v>277</v>
+        <v>122</v>
       </c>
     </row>
     <row r="282" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C282" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="283" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C283" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="284" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C284" t="s">
-        <v>244</v>
+        <v>501</v>
       </c>
     </row>
     <row r="285" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C285" t="s">
-        <v>123</v>
+        <v>278</v>
       </c>
     </row>
     <row r="286" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C286" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
     </row>
     <row r="287" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C287" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="288" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C288" t="s">
-        <v>125</v>
+        <v>210</v>
       </c>
     </row>
     <row r="289" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C289" t="s">
-        <v>266</v>
+        <v>124</v>
       </c>
     </row>
     <row r="290" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C290" t="s">
-        <v>267</v>
+        <v>125</v>
       </c>
     </row>
     <row r="291" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C291" t="s">
-        <v>605</v>
+        <v>266</v>
       </c>
     </row>
     <row r="292" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C292" t="s">
-        <v>606</v>
+        <v>267</v>
       </c>
     </row>
     <row r="293" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C293" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="294" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C294" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="295" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C295" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="296" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C296" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="297" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C297" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
     <row r="298" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C298" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
     </row>
     <row r="299" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C299" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="300" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C300" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="301" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C301" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="302" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C302" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="303" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C303" s="2" t="s">
-        <v>623</v>
+      <c r="C303" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="304" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C304" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C305" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C306" t="s">
         <v>624</v>
       </c>
     </row>
@@ -4721,7 +4744,7 @@
       <selection activeCell="AE3" sqref="B3:AE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.109375" customWidth="1"/>
@@ -5290,7 +5313,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -6129,11 +6152,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B380EC-F6E5-4369-BC41-BC40A47B4895}">
-  <dimension ref="A1:C302"/>
+  <dimension ref="A1:C304"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="F292" sqref="F292"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
@@ -8440,7 +8465,7 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="4" t="s">
+      <c r="A210" s="9" t="s">
         <v>170</v>
       </c>
       <c r="B210" s="4" t="s">
@@ -8451,7 +8476,7 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="4" t="s">
+      <c r="A211" s="9" t="s">
         <v>171</v>
       </c>
       <c r="B211" s="4" t="s">
@@ -8462,7 +8487,7 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="4" t="s">
+      <c r="A212" s="9" t="s">
         <v>173</v>
       </c>
       <c r="B212" s="4" t="s">
@@ -8473,7 +8498,7 @@
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="4" t="s">
+      <c r="A213" s="9" t="s">
         <v>175</v>
       </c>
       <c r="B213" s="4" t="s">
@@ -8484,7 +8509,7 @@
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="4" t="s">
+      <c r="A214" s="9" t="s">
         <v>474</v>
       </c>
       <c r="B214" s="4" t="s">
@@ -8495,7 +8520,7 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="4" t="s">
+      <c r="A215" s="9" t="s">
         <v>178</v>
       </c>
       <c r="B215" s="4" t="s">
@@ -8506,31 +8531,31 @@
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="4" t="s">
+      <c r="A216" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="B216" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="4" t="s">
+      <c r="B217" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B217" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="B218" s="4" t="s">
         <v>627</v>
       </c>
@@ -8539,7 +8564,7 @@
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="4" t="s">
+      <c r="A219" s="9" t="s">
         <v>475</v>
       </c>
       <c r="B219" s="4" t="s">
@@ -8550,7 +8575,7 @@
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="4" t="s">
+      <c r="A220" s="9" t="s">
         <v>476</v>
       </c>
       <c r="B220" s="4" t="s">
@@ -8561,7 +8586,7 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="4" t="s">
+      <c r="A221" s="9" t="s">
         <v>477</v>
       </c>
       <c r="B221" s="4" t="s">
@@ -8572,7 +8597,7 @@
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="4" t="s">
+      <c r="A222" s="9" t="s">
         <v>478</v>
       </c>
       <c r="B222" s="4" t="s">
@@ -8583,7 +8608,7 @@
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="4" t="s">
+      <c r="A223" s="9" t="s">
         <v>479</v>
       </c>
       <c r="B223" s="4" t="s">
@@ -8594,7 +8619,7 @@
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="4" t="s">
+      <c r="A224" s="9" t="s">
         <v>480</v>
       </c>
       <c r="B224" s="4" t="s">
@@ -8605,7 +8630,7 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="4" t="s">
+      <c r="A225" s="9" t="s">
         <v>184</v>
       </c>
       <c r="B225" s="4" t="s">
@@ -8616,7 +8641,7 @@
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="4" t="s">
+      <c r="A226" s="9" t="s">
         <v>185</v>
       </c>
       <c r="B226" s="4" t="s">
@@ -8627,7 +8652,7 @@
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="4" t="s">
+      <c r="A227" s="9" t="s">
         <v>481</v>
       </c>
       <c r="B227" s="4" t="s">
@@ -8638,7 +8663,7 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="4" t="s">
+      <c r="A228" s="9" t="s">
         <v>186</v>
       </c>
       <c r="B228" s="4" t="s">
@@ -8649,7 +8674,7 @@
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="4" t="s">
+      <c r="A229" s="9" t="s">
         <v>482</v>
       </c>
       <c r="B229" s="4" t="s">
@@ -8660,7 +8685,7 @@
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="4" t="s">
+      <c r="A230" s="9" t="s">
         <v>188</v>
       </c>
       <c r="B230" s="4" t="s">
@@ -8671,7 +8696,7 @@
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="4" t="s">
+      <c r="A231" s="9" t="s">
         <v>189</v>
       </c>
       <c r="B231" s="4" t="s">
@@ -8682,7 +8707,7 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="4" t="s">
+      <c r="A232" s="9" t="s">
         <v>190</v>
       </c>
       <c r="B232" s="4" t="s">
@@ -8693,7 +8718,7 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="4" t="s">
+      <c r="A233" s="9" t="s">
         <v>192</v>
       </c>
       <c r="B233" s="4" t="s">
@@ -8704,7 +8729,7 @@
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="4" t="s">
+      <c r="A234" s="9" t="s">
         <v>483</v>
       </c>
       <c r="B234" s="4" t="s">
@@ -8715,7 +8740,7 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="4" t="s">
+      <c r="A235" s="9" t="s">
         <v>235</v>
       </c>
       <c r="B235" s="4" t="s">
@@ -8726,7 +8751,7 @@
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="4" t="s">
+      <c r="A236" s="9" t="s">
         <v>236</v>
       </c>
       <c r="B236" s="4" t="s">
@@ -8737,7 +8762,7 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="4" t="s">
+      <c r="A237" s="9" t="s">
         <v>237</v>
       </c>
       <c r="B237" s="4" t="s">
@@ -8748,7 +8773,7 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="4" t="s">
+      <c r="A238" s="9" t="s">
         <v>238</v>
       </c>
       <c r="B238" s="4" t="s">
@@ -8759,7 +8784,7 @@
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="4" t="s">
+      <c r="A239" s="9" t="s">
         <v>239</v>
       </c>
       <c r="B239" s="4" t="s">
@@ -8770,7 +8795,7 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="4" t="s">
+      <c r="A240" s="9" t="s">
         <v>484</v>
       </c>
       <c r="B240" s="4" t="s">
@@ -8781,7 +8806,7 @@
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="4" t="s">
+      <c r="A241" s="9" t="s">
         <v>485</v>
       </c>
       <c r="B241" s="4" t="s">
@@ -8792,561 +8817,561 @@
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="4" t="s">
+      <c r="A242" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B242" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C242" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="4" t="s">
+      <c r="B243" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B243" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C243" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" s="4" t="s">
+      <c r="B244" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="B244" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C244" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="4" t="s">
+      <c r="B245" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="B245" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C245" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A246" s="4" t="s">
+      <c r="B246" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="B246" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" s="4" t="s">
+      <c r="B247" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="B247" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="4" t="s">
+      <c r="B249" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="B248" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C248" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" s="4" t="s">
+      <c r="B250" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="B249" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A250" s="4" t="s">
+      <c r="B251" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B250" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C250" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" s="4" t="s">
+      <c r="B252" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="B251" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C251" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A252" s="4" t="s">
+      <c r="B253" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="B252" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C252" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="4" t="s">
+      <c r="B254" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="B253" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A254" s="4" t="s">
+      <c r="B255" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="B254" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C254" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" s="4" t="s">
+      <c r="B256" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="B255" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" s="4" t="s">
+      <c r="B257" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="B256" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A257" s="4" t="s">
+      <c r="B258" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="B257" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C257" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="4" t="s">
+      <c r="B259" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="B258" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C258" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" s="4" t="s">
+      <c r="B260" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="B259" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C259" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A260" s="4" t="s">
+      <c r="B261" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B260" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C260" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261" s="4" t="s">
+      <c r="B262" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="B261" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C261" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A262" s="4" t="s">
+      <c r="B263" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B262" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C262" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="4" t="s">
+      <c r="B264" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B263" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C263" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="4" t="s">
+      <c r="B265" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B264" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C264" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" s="4" t="s">
+      <c r="B266" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B265" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C265" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266" s="4" t="s">
+      <c r="B267" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="B266" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C266" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A267" s="4" t="s">
+      <c r="B268" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B267" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C267" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A268" s="4" t="s">
+      <c r="B269" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B268" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C268" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A269" s="4" t="s">
+      <c r="B270" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B269" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C269" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="4" t="s">
+      <c r="B271" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B270" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C270" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271" s="4" t="s">
+      <c r="B272" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B271" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272" s="4" t="s">
+      <c r="B273" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B272" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C272" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A273" s="4" t="s">
+      <c r="B274" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B273" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C273" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" s="4" t="s">
+      <c r="B275" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B274" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C274" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A275" s="4" t="s">
+      <c r="B276" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="B275" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A276" s="4" t="s">
+      <c r="B277" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B276" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C276" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A277" s="4" t="s">
+      <c r="B278" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="B277" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C277" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="4" t="s">
+      <c r="B279" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="B278" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C278" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="4" t="s">
+      <c r="B280" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B279" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C279" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A280" s="4" t="s">
+      <c r="B281" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="B280" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C280" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A281" s="4" t="s">
+      <c r="B282" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="B281" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C281" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A282" s="4" t="s">
+      <c r="B283" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="B282" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C282" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" s="4" t="s">
+      <c r="B284" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B283" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C283" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A284" s="4" t="s">
+      <c r="B285" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B284" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C284" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="4" t="s">
+      <c r="B286" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B285" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C285" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A286" s="4" t="s">
+      <c r="B287" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="B286" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C286" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A287" s="4" t="s">
+      <c r="B288" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B287" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C287" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A288" s="4" t="s">
+      <c r="B289" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B288" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C288" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A289" s="4" t="s">
+      <c r="B290" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B289" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C289" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" s="4" t="s">
+      <c r="B291" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B290" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C290" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A291" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="B291" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="C291" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A292" s="6" t="s">
-        <v>606</v>
-      </c>
       <c r="B292" s="4" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>613</v>
@@ -9354,7 +9379,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B293" s="4" t="s">
         <v>615</v>
@@ -9365,7 +9390,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="6" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B294" s="4" t="s">
         <v>615</v>
@@ -9375,44 +9400,44 @@
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="5" t="s">
+      <c r="A295" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="B295" s="4" t="s">
+      <c r="B297" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="C295" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A296" s="5" t="s">
+      <c r="C297" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="B296" s="4" t="s">
+      <c r="B298" s="4" t="s">
         <v>614</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="B297" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="C297" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A298" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="B298" s="4" t="s">
-        <v>615</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>613</v>
@@ -9420,7 +9445,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B299" s="4" t="s">
         <v>615</v>
@@ -9431,7 +9456,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="8" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B300" s="4" t="s">
         <v>615</v>
@@ -9442,7 +9467,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="8" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B301" s="4" t="s">
         <v>615</v>
@@ -9453,12 +9478,34 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="8" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B302" s="4" t="s">
         <v>615</v>
       </c>
       <c r="C302" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C304" s="4" t="s">
         <v>613</v>
       </c>
     </row>
@@ -9469,17 +9516,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="27b2dddd8e7dbb40e638da4098fa8bb9">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d3d23b2622c6bf8a24212abcb0f9b2c" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2854f1a0eb82b4299baec9a2bc5fa3aa">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e5d0997856646832757f031b0a9b789" ns2:_="" ns3:_="">
     <xsd:import namespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
     <xsd:import namespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1"/>
     <xsd:element name="properties">
@@ -9561,7 +9599,7 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -9582,7 +9620,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -9601,7 +9639,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -9618,8 +9656,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -9708,7 +9746,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c2c21c4-f980-47d5-be5b-1bb924ee96a2">
@@ -9718,16 +9756,17 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E67016B-2BB4-478C-AF15-1A9FF8562EBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3851087F-07D3-4405-A433-7A0ADDCA2D10}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44EABBD6-779A-48CC-9ED2-A26C957FCC1E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -9745,7 +9784,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C8338AF-8AC2-43D7-8F90-72D0B1807480}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9753,4 +9792,12 @@
     <ds:schemaRef ds:uri="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E67016B-2BB4-478C-AF15-1A9FF8562EBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/t3a_experiments/Experiment_1/0_From_Confection/B1_Model_Structure.xlsx
+++ b/t3a_experiments/Experiment_1/0_From_Confection/B1_Model_Structure.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{838D6DA1-B740-476B-8C62-57EBF32FF73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DB45B47-E8FD-4720-A6E6-42659F3C1016}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C07BB8FC-7DE8-4C9E-BA01-E9A1AE288F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37320" yWindow="1080" windowWidth="17340" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sets" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="642">
   <si>
     <t>set</t>
   </si>
@@ -1940,13 +1940,37 @@
   </si>
   <si>
     <t>IPPU</t>
+  </si>
+  <si>
+    <t>PPPVTHYD</t>
+  </si>
+  <si>
+    <t>PPWNDOFF</t>
+  </si>
+  <si>
+    <t>CONHAB</t>
+  </si>
+  <si>
+    <t>CONTUR</t>
+  </si>
+  <si>
+    <t>CONVAR</t>
+  </si>
+  <si>
+    <t>CONHICK</t>
+  </si>
+  <si>
+    <t>RESHID</t>
+  </si>
+  <si>
+    <t>DAPANI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2001,7 +2025,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2061,11 +2085,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2075,11 +2125,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2360,28 +2413,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L306"/>
+  <dimension ref="A1:L308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E166" sqref="E166:E192"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2419,7 +2472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2457,7 +2510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2467,7 +2520,7 @@
       </c>
       <c r="C3">
         <f>+COUNTA(C4:C1048576)</f>
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
@@ -2479,7 +2532,7 @@
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
@@ -2506,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>2018</v>
       </c>
@@ -2529,7 +2582,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>2019</v>
       </c>
@@ -2543,7 +2596,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2020</v>
       </c>
@@ -2557,7 +2610,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>2021</v>
       </c>
@@ -2571,7 +2624,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>2022</v>
       </c>
@@ -2585,7 +2638,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>2023</v>
       </c>
@@ -2599,7 +2652,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>2024</v>
       </c>
@@ -2613,7 +2666,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>2025</v>
       </c>
@@ -2627,7 +2680,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>2026</v>
       </c>
@@ -2641,7 +2694,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>2027</v>
       </c>
@@ -2655,7 +2708,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>2028</v>
       </c>
@@ -2669,7 +2722,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>2029</v>
       </c>
@@ -2683,7 +2736,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>2030</v>
       </c>
@@ -2693,8 +2746,11 @@
       <c r="E16" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="F16" s="14" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>2031</v>
       </c>
@@ -2704,8 +2760,11 @@
       <c r="E17" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="F17" s="15" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>2032</v>
       </c>
@@ -2715,8 +2774,11 @@
       <c r="E18" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="F18" s="15" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>2033</v>
       </c>
@@ -2726,8 +2788,11 @@
       <c r="E19" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="2:5">
+      <c r="F19" s="15" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>2034</v>
       </c>
@@ -2737,8 +2802,11 @@
       <c r="E20" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="2:5">
+      <c r="F20" s="15" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21">
         <v>2035</v>
       </c>
@@ -2748,8 +2816,11 @@
       <c r="E21" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="2:5">
+      <c r="F21" s="16" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>2036</v>
       </c>
@@ -2760,7 +2831,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>2037</v>
       </c>
@@ -2771,7 +2842,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>2038</v>
       </c>
@@ -2782,7 +2853,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>2039</v>
       </c>
@@ -2793,7 +2864,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>2040</v>
       </c>
@@ -2804,7 +2875,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>2041</v>
       </c>
@@ -2815,7 +2886,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>2042</v>
       </c>
@@ -2826,7 +2897,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>2043</v>
       </c>
@@ -2837,7 +2908,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>2044</v>
       </c>
@@ -2848,7 +2919,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>2045</v>
       </c>
@@ -2859,7 +2930,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>2046</v>
       </c>
@@ -2870,7 +2941,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>2047</v>
       </c>
@@ -2881,7 +2952,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>2048</v>
       </c>
@@ -2892,7 +2963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>2049</v>
       </c>
@@ -2903,7 +2974,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="2:5">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>2050</v>
       </c>
@@ -2914,7 +2985,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
         <v>105</v>
       </c>
@@ -2922,7 +2993,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="2:5">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
         <v>107</v>
       </c>
@@ -2930,7 +3001,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="2:5">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
         <v>109</v>
       </c>
@@ -2938,7 +3009,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="2:5">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
         <v>111</v>
       </c>
@@ -2946,7 +3017,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="2:5">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
         <v>113</v>
       </c>
@@ -2954,7 +3025,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="2:5">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
         <v>115</v>
       </c>
@@ -2962,7 +3033,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="2:5">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>117</v>
       </c>
@@ -2970,7 +3041,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="2:5">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
         <v>119</v>
       </c>
@@ -2978,7 +3049,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="2:5">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
         <v>121</v>
       </c>
@@ -2986,7 +3057,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="2:5">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
         <v>123</v>
       </c>
@@ -2994,7 +3065,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="2:5">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
         <v>125</v>
       </c>
@@ -3002,7 +3073,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="2:5">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
         <v>126</v>
       </c>
@@ -3010,7 +3081,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="3:5">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
         <v>127</v>
       </c>
@@ -3018,7 +3089,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="3:5">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
         <v>128</v>
       </c>
@@ -3026,7 +3097,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="3:5">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C51" t="s">
         <v>129</v>
       </c>
@@ -3034,7 +3105,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="3:5">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C52" t="s">
         <v>130</v>
       </c>
@@ -3042,7 +3113,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="3:5">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C53" t="s">
         <v>131</v>
       </c>
@@ -3050,7 +3121,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="3:5">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C54" t="s">
         <v>133</v>
       </c>
@@ -3058,7 +3129,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="3:5">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C55" t="s">
         <v>135</v>
       </c>
@@ -3066,7 +3137,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="3:5">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C56" t="s">
         <v>137</v>
       </c>
@@ -3074,7 +3145,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="3:5">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C57" t="s">
         <v>139</v>
       </c>
@@ -3082,7 +3153,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="3:5">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C58" t="s">
         <v>141</v>
       </c>
@@ -3090,7 +3161,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="3:5">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C59" t="s">
         <v>143</v>
       </c>
@@ -3098,7 +3169,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="3:5">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
         <v>122</v>
       </c>
@@ -3106,7 +3177,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="3:5">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C61" t="s">
         <v>124</v>
       </c>
@@ -3114,7 +3185,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="3:5">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C62" t="s">
         <v>147</v>
       </c>
@@ -3122,7 +3193,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="63" spans="3:5">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C63" t="s">
         <v>149</v>
       </c>
@@ -3130,7 +3201,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="64" spans="3:5">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C64" t="s">
         <v>151</v>
       </c>
@@ -3138,7 +3209,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="3:7">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C65" t="s">
         <v>153</v>
       </c>
@@ -3146,7 +3217,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="3:7">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C66" t="s">
         <v>155</v>
       </c>
@@ -3154,7 +3225,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="3:7">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C67" t="s">
         <v>157</v>
       </c>
@@ -3162,7 +3233,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="68" spans="3:7">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C68" t="s">
         <v>159</v>
       </c>
@@ -3170,7 +3241,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="3:7">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C69" t="s">
         <v>161</v>
       </c>
@@ -3178,7 +3249,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="3:7">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C70" t="s">
         <v>163</v>
       </c>
@@ -3186,7 +3257,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="71" spans="3:7">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C71" t="s">
         <v>165</v>
       </c>
@@ -3194,7 +3265,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="72" spans="3:7">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C72" t="s">
         <v>167</v>
       </c>
@@ -3202,7 +3273,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="73" spans="3:7">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C73" t="s">
         <v>169</v>
       </c>
@@ -3210,7 +3281,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="3:7">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C74" t="s">
         <v>171</v>
       </c>
@@ -3218,7 +3289,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="75" spans="3:7">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C75" t="s">
         <v>173</v>
       </c>
@@ -3226,7 +3297,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="76" spans="3:7">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C76" t="s">
         <v>175</v>
       </c>
@@ -3234,7 +3305,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="77" spans="3:7">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C77" t="s">
         <v>177</v>
       </c>
@@ -3243,7 +3314,7 @@
       </c>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="3:7">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C78" t="s">
         <v>179</v>
       </c>
@@ -3251,7 +3322,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="79" spans="3:7">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C79" t="s">
         <v>181</v>
       </c>
@@ -3259,7 +3330,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="80" spans="3:7">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C80" t="s">
         <v>183</v>
       </c>
@@ -3267,7 +3338,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="81" spans="3:5">
+    <row r="81" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C81" t="s">
         <v>185</v>
       </c>
@@ -3275,7 +3346,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="82" spans="3:5">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C82" t="s">
         <v>187</v>
       </c>
@@ -3283,7 +3354,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="83" spans="3:5">
+    <row r="83" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C83" t="s">
         <v>189</v>
       </c>
@@ -3291,7 +3362,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="84" spans="3:5">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C84" t="s">
         <v>191</v>
       </c>
@@ -3299,7 +3370,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="85" spans="3:5">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C85" t="s">
         <v>193</v>
       </c>
@@ -3307,7 +3378,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="86" spans="3:5">
+    <row r="86" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C86" t="s">
         <v>195</v>
       </c>
@@ -3315,7 +3386,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="87" spans="3:5">
+    <row r="87" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C87" t="s">
         <v>197</v>
       </c>
@@ -3323,7 +3394,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="88" spans="3:5">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C88" t="s">
         <v>199</v>
       </c>
@@ -3331,7 +3402,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="3:5">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C89" t="s">
         <v>201</v>
       </c>
@@ -3339,7 +3410,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="90" spans="3:5">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C90" t="s">
         <v>203</v>
       </c>
@@ -3347,7 +3418,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="91" spans="3:5">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C91" t="s">
         <v>205</v>
       </c>
@@ -3355,7 +3426,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="92" spans="3:5">
+    <row r="92" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C92" t="s">
         <v>207</v>
       </c>
@@ -3363,7 +3434,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="93" spans="3:5">
+    <row r="93" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C93" t="s">
         <v>209</v>
       </c>
@@ -3371,7 +3442,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="94" spans="3:5">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C94" t="s">
         <v>211</v>
       </c>
@@ -3379,7 +3450,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="95" spans="3:5">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C95" t="s">
         <v>213</v>
       </c>
@@ -3387,7 +3458,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="96" spans="3:5">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C96" t="s">
         <v>215</v>
       </c>
@@ -3395,7 +3466,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="97" spans="3:5">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C97" t="s">
         <v>217</v>
       </c>
@@ -3403,7 +3474,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="98" spans="3:5">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C98" t="s">
         <v>219</v>
       </c>
@@ -3411,7 +3482,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="99" spans="3:5">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C99" t="s">
         <v>221</v>
       </c>
@@ -3419,7 +3490,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="100" spans="3:5">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C100" t="s">
         <v>223</v>
       </c>
@@ -3427,7 +3498,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="101" spans="3:5">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C101" t="s">
         <v>225</v>
       </c>
@@ -3435,7 +3506,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="102" spans="3:5">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C102" t="s">
         <v>227</v>
       </c>
@@ -3443,7 +3514,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="103" spans="3:5">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C103" t="s">
         <v>229</v>
       </c>
@@ -3451,7 +3522,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="104" spans="3:5">
+    <row r="104" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C104" t="s">
         <v>231</v>
       </c>
@@ -3459,7 +3530,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="105" spans="3:5">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C105" t="s">
         <v>233</v>
       </c>
@@ -3467,7 +3538,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="106" spans="3:5">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C106" t="s">
         <v>235</v>
       </c>
@@ -3475,7 +3546,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="107" spans="3:5">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C107" t="s">
         <v>237</v>
       </c>
@@ -3483,7 +3554,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="108" spans="3:5">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C108" t="s">
         <v>239</v>
       </c>
@@ -3491,7 +3562,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="109" spans="3:5">
+    <row r="109" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C109" t="s">
         <v>241</v>
       </c>
@@ -3499,7 +3570,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="110" spans="3:5">
+    <row r="110" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C110" t="s">
         <v>243</v>
       </c>
@@ -3507,7 +3578,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="111" spans="3:5">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C111" t="s">
         <v>110</v>
       </c>
@@ -3515,7 +3586,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="112" spans="3:5">
+    <row r="112" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C112" t="s">
         <v>112</v>
       </c>
@@ -3523,7 +3594,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="113" spans="3:5">
+    <row r="113" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C113" t="s">
         <v>247</v>
       </c>
@@ -3531,7 +3602,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="114" spans="3:5">
+    <row r="114" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C114" t="s">
         <v>249</v>
       </c>
@@ -3539,7 +3610,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="115" spans="3:5">
+    <row r="115" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C115" t="s">
         <v>251</v>
       </c>
@@ -3547,7 +3618,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="116" spans="3:5">
+    <row r="116" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C116" t="s">
         <v>253</v>
       </c>
@@ -3555,7 +3626,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="117" spans="3:5">
+    <row r="117" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C117" t="s">
         <v>255</v>
       </c>
@@ -3563,7 +3634,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="118" spans="3:5">
+    <row r="118" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C118" t="s">
         <v>257</v>
       </c>
@@ -3571,7 +3642,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="119" spans="3:5">
+    <row r="119" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C119" t="s">
         <v>259</v>
       </c>
@@ -3579,7 +3650,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="120" spans="3:5">
+    <row r="120" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C120" t="s">
         <v>261</v>
       </c>
@@ -3587,7 +3658,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="121" spans="3:5">
+    <row r="121" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C121" t="s">
         <v>263</v>
       </c>
@@ -3595,7 +3666,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="122" spans="3:5">
+    <row r="122" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C122" t="s">
         <v>265</v>
       </c>
@@ -3603,7 +3674,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="123" spans="3:5">
+    <row r="123" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C123" t="s">
         <v>267</v>
       </c>
@@ -3611,7 +3682,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="124" spans="3:5">
+    <row r="124" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C124" t="s">
         <v>269</v>
       </c>
@@ -3619,7 +3690,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="125" spans="3:5">
+    <row r="125" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C125" t="s">
         <v>271</v>
       </c>
@@ -3627,7 +3698,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="126" spans="3:5">
+    <row r="126" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C126" t="s">
         <v>273</v>
       </c>
@@ -3635,7 +3706,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="127" spans="3:5">
+    <row r="127" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C127" t="s">
         <v>275</v>
       </c>
@@ -3643,7 +3714,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="128" spans="3:5">
+    <row r="128" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C128" t="s">
         <v>277</v>
       </c>
@@ -3651,7 +3722,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="129" spans="3:5">
+    <row r="129" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C129" t="s">
         <v>279</v>
       </c>
@@ -3659,7 +3730,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="130" spans="3:5">
+    <row r="130" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C130" t="s">
         <v>281</v>
       </c>
@@ -3667,7 +3738,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="131" spans="3:5">
+    <row r="131" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C131" t="s">
         <v>283</v>
       </c>
@@ -3675,7 +3746,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="132" spans="3:5">
+    <row r="132" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C132" t="s">
         <v>285</v>
       </c>
@@ -3683,7 +3754,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="133" spans="3:5">
+    <row r="133" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C133" t="s">
         <v>287</v>
       </c>
@@ -3691,7 +3762,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="134" spans="3:5">
+    <row r="134" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C134" t="s">
         <v>289</v>
       </c>
@@ -3699,7 +3770,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="135" spans="3:5">
+    <row r="135" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C135" t="s">
         <v>291</v>
       </c>
@@ -3707,7 +3778,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="136" spans="3:5">
+    <row r="136" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C136" t="s">
         <v>293</v>
       </c>
@@ -3715,7 +3786,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="137" spans="3:5">
+    <row r="137" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C137" t="s">
         <v>295</v>
       </c>
@@ -3723,7 +3794,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="138" spans="3:5">
+    <row r="138" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C138" t="s">
         <v>297</v>
       </c>
@@ -3731,7 +3802,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="139" spans="3:5">
+    <row r="139" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C139" t="s">
         <v>299</v>
       </c>
@@ -3739,7 +3810,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="140" spans="3:5">
+    <row r="140" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C140" t="s">
         <v>301</v>
       </c>
@@ -3747,7 +3818,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="141" spans="3:5">
+    <row r="141" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C141" t="s">
         <v>303</v>
       </c>
@@ -3755,7 +3826,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="142" spans="3:5">
+    <row r="142" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C142" t="s">
         <v>305</v>
       </c>
@@ -3763,7 +3834,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="143" spans="3:5">
+    <row r="143" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C143" t="s">
         <v>307</v>
       </c>
@@ -3771,7 +3842,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="144" spans="3:5">
+    <row r="144" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C144" t="s">
         <v>309</v>
       </c>
@@ -3779,7 +3850,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="145" spans="3:5">
+    <row r="145" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C145" t="s">
         <v>311</v>
       </c>
@@ -3787,7 +3858,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="146" spans="3:5">
+    <row r="146" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C146" t="s">
         <v>313</v>
       </c>
@@ -3795,7 +3866,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="147" spans="3:5">
+    <row r="147" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C147" t="s">
         <v>315</v>
       </c>
@@ -3803,7 +3874,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="148" spans="3:5">
+    <row r="148" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C148" t="s">
         <v>317</v>
       </c>
@@ -3811,7 +3882,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="149" spans="3:5">
+    <row r="149" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C149" t="s">
         <v>319</v>
       </c>
@@ -3819,7 +3890,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="150" spans="3:5">
+    <row r="150" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C150" t="s">
         <v>321</v>
       </c>
@@ -3827,7 +3898,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="151" spans="3:5">
+    <row r="151" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C151" t="s">
         <v>323</v>
       </c>
@@ -3835,7 +3906,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="152" spans="3:5">
+    <row r="152" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C152" t="s">
         <v>325</v>
       </c>
@@ -3843,7 +3914,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="153" spans="3:5">
+    <row r="153" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C153" t="s">
         <v>327</v>
       </c>
@@ -3851,7 +3922,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="154" spans="3:5">
+    <row r="154" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C154" t="s">
         <v>329</v>
       </c>
@@ -3859,7 +3930,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="155" spans="3:5">
+    <row r="155" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C155" t="s">
         <v>331</v>
       </c>
@@ -3867,7 +3938,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="156" spans="3:5">
+    <row r="156" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C156" t="s">
         <v>333</v>
       </c>
@@ -3875,7 +3946,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="157" spans="3:5">
+    <row r="157" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C157" t="s">
         <v>335</v>
       </c>
@@ -3883,7 +3954,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="158" spans="3:5">
+    <row r="158" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C158" t="s">
         <v>337</v>
       </c>
@@ -3891,7 +3962,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="159" spans="3:5">
+    <row r="159" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C159" t="s">
         <v>339</v>
       </c>
@@ -3899,7 +3970,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="160" spans="3:5">
+    <row r="160" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C160" t="s">
         <v>341</v>
       </c>
@@ -3907,7 +3978,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="161" spans="3:5">
+    <row r="161" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C161" t="s">
         <v>343</v>
       </c>
@@ -3915,7 +3986,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="162" spans="3:5">
+    <row r="162" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C162" t="s">
         <v>345</v>
       </c>
@@ -3923,7 +3994,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="163" spans="3:5">
+    <row r="163" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C163" t="s">
         <v>347</v>
       </c>
@@ -3931,7 +4002,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="164" spans="3:5">
+    <row r="164" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C164" t="s">
         <v>349</v>
       </c>
@@ -3939,7 +4010,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="165" spans="3:5">
+    <row r="165" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C165" t="s">
         <v>351</v>
       </c>
@@ -3947,7 +4018,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="166" spans="3:5" ht="15">
+    <row r="166" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C166" t="s">
         <v>353</v>
       </c>
@@ -3955,7 +4026,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="167" spans="3:5" ht="15">
+    <row r="167" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C167" t="s">
         <v>355</v>
       </c>
@@ -3963,7 +4034,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="168" spans="3:5" ht="15">
+    <row r="168" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C168" t="s">
         <v>357</v>
       </c>
@@ -3971,7 +4042,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="169" spans="3:5" ht="15">
+    <row r="169" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C169" t="s">
         <v>359</v>
       </c>
@@ -3979,7 +4050,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="170" spans="3:5" ht="15">
+    <row r="170" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C170" t="s">
         <v>361</v>
       </c>
@@ -3987,7 +4058,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="171" spans="3:5" ht="15">
+    <row r="171" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C171" t="s">
         <v>363</v>
       </c>
@@ -3995,7 +4066,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="172" spans="3:5" ht="15">
+    <row r="172" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C172" t="s">
         <v>365</v>
       </c>
@@ -4003,7 +4074,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="173" spans="3:5" ht="15">
+    <row r="173" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C173" t="s">
         <v>367</v>
       </c>
@@ -4011,7 +4082,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="174" spans="3:5" ht="15">
+    <row r="174" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C174" t="s">
         <v>369</v>
       </c>
@@ -4019,7 +4090,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="175" spans="3:5" ht="15">
+    <row r="175" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C175" t="s">
         <v>371</v>
       </c>
@@ -4027,7 +4098,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="176" spans="3:5" ht="15">
+    <row r="176" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C176" t="s">
         <v>373</v>
       </c>
@@ -4035,7 +4106,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="177" spans="3:5" ht="15">
+    <row r="177" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C177" t="s">
         <v>375</v>
       </c>
@@ -4043,7 +4114,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="178" spans="3:5" ht="15">
+    <row r="178" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C178" t="s">
         <v>377</v>
       </c>
@@ -4051,7 +4122,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="179" spans="3:5" ht="15">
+    <row r="179" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C179" t="s">
         <v>379</v>
       </c>
@@ -4059,7 +4130,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="180" spans="3:5" ht="15">
+    <row r="180" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C180" t="s">
         <v>381</v>
       </c>
@@ -4067,7 +4138,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="181" spans="3:5" ht="15">
+    <row r="181" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C181" t="s">
         <v>383</v>
       </c>
@@ -4075,7 +4146,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="182" spans="3:5" ht="15">
+    <row r="182" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C182" t="s">
         <v>385</v>
       </c>
@@ -4083,7 +4154,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="183" spans="3:5" ht="15">
+    <row r="183" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C183" t="s">
         <v>387</v>
       </c>
@@ -4091,7 +4162,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="184" spans="3:5" ht="15">
+    <row r="184" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C184" t="s">
         <v>389</v>
       </c>
@@ -4099,7 +4170,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="185" spans="3:5" ht="15">
+    <row r="185" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C185" t="s">
         <v>391</v>
       </c>
@@ -4107,7 +4178,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="186" spans="3:5" ht="15">
+    <row r="186" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C186" t="s">
         <v>393</v>
       </c>
@@ -4115,7 +4186,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="187" spans="3:5" ht="15">
+    <row r="187" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C187" t="s">
         <v>395</v>
       </c>
@@ -4123,7 +4194,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="188" spans="3:5" ht="15">
+    <row r="188" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C188" t="s">
         <v>397</v>
       </c>
@@ -4131,7 +4202,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="189" spans="3:5" ht="15">
+    <row r="189" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C189" t="s">
         <v>399</v>
       </c>
@@ -4139,7 +4210,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="190" spans="3:5" ht="15">
+    <row r="190" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C190" t="s">
         <v>401</v>
       </c>
@@ -4147,7 +4218,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="191" spans="3:5" ht="15">
+    <row r="191" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C191" t="s">
         <v>403</v>
       </c>
@@ -4155,7 +4226,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="192" spans="3:5" ht="15">
+    <row r="192" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C192" t="s">
         <v>405</v>
       </c>
@@ -4163,7 +4234,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="193" spans="3:5">
+    <row r="193" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C193" t="s">
         <v>407</v>
       </c>
@@ -4171,7 +4242,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="194" spans="3:5">
+    <row r="194" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C194" t="s">
         <v>409</v>
       </c>
@@ -4179,7 +4250,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="195" spans="3:5">
+    <row r="195" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C195" t="s">
         <v>411</v>
       </c>
@@ -4187,7 +4258,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="196" spans="3:5">
+    <row r="196" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C196" t="s">
         <v>413</v>
       </c>
@@ -4195,7 +4266,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="197" spans="3:5">
+    <row r="197" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C197" t="s">
         <v>415</v>
       </c>
@@ -4203,7 +4274,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="198" spans="3:5">
+    <row r="198" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C198" t="s">
         <v>417</v>
       </c>
@@ -4211,7 +4282,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="199" spans="3:5">
+    <row r="199" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C199" s="2" t="s">
         <v>419</v>
       </c>
@@ -4219,7 +4290,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="200" spans="3:5">
+    <row r="200" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C200" t="s">
         <v>421</v>
       </c>
@@ -4227,7 +4298,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="201" spans="3:5">
+    <row r="201" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C201" t="s">
         <v>423</v>
       </c>
@@ -4235,7 +4306,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="202" spans="3:5">
+    <row r="202" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C202" t="s">
         <v>425</v>
       </c>
@@ -4243,7 +4314,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="203" spans="3:5">
+    <row r="203" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C203" t="s">
         <v>427</v>
       </c>
@@ -4251,7 +4322,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="204" spans="3:5">
+    <row r="204" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C204" t="s">
         <v>429</v>
       </c>
@@ -4259,7 +4330,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="205" spans="3:5">
+    <row r="205" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C205" t="s">
         <v>431</v>
       </c>
@@ -4267,7 +4338,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="206" spans="3:5">
+    <row r="206" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C206" t="s">
         <v>433</v>
       </c>
@@ -4275,7 +4346,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="207" spans="3:5">
+    <row r="207" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C207" t="s">
         <v>435</v>
       </c>
@@ -4283,7 +4354,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="208" spans="3:5">
+    <row r="208" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C208" t="s">
         <v>437</v>
       </c>
@@ -4291,7 +4362,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="209" spans="3:5">
+    <row r="209" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C209" t="s">
         <v>439</v>
       </c>
@@ -4299,7 +4370,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="210" spans="3:5" ht="15">
+    <row r="210" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C210" s="13" t="s">
         <v>441</v>
       </c>
@@ -4307,484 +4378,494 @@
         <v>442</v>
       </c>
     </row>
-    <row r="211" spans="3:5" ht="15">
+    <row r="211" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C211" s="13" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="212" spans="3:5" ht="15">
+    <row r="212" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C212" s="13" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="213" spans="3:5" ht="15">
+    <row r="213" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C213" s="13" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="214" spans="3:5" ht="15">
+    <row r="214" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C214" s="13" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="215" spans="3:5" ht="15">
+    <row r="215" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C215" s="13" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="216" spans="3:5" ht="15">
+    <row r="216" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C216" s="13" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="217" spans="3:5" ht="15">
+    <row r="217" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C217" s="13" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="218" spans="3:5" ht="15">
+    <row r="218" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C218" s="13" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="219" spans="3:5" ht="15">
+    <row r="219" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C219" s="13" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="220" spans="3:5" ht="15">
+    <row r="220" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C220" s="13" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="221" spans="3:5" ht="15">
+    <row r="221" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C221" s="13" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="222" spans="3:5" ht="15">
+    <row r="222" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C222" s="13" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="223" spans="3:5" ht="15">
+    <row r="223" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C223" s="13" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="224" spans="3:5" ht="15">
+    <row r="224" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C224" s="13" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="225" spans="3:3" ht="15">
+    <row r="225" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C225" s="13" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="226" spans="3:3" ht="15">
+    <row r="226" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C226" s="13" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="227" spans="3:3" ht="15">
+    <row r="227" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C227" s="13" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="228" spans="3:3" ht="15">
+    <row r="228" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C228" s="13" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="229" spans="3:3" ht="15">
+    <row r="229" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C229" s="13" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="230" spans="3:3" ht="15">
+    <row r="230" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C230" s="13" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="231" spans="3:3" ht="15">
+    <row r="231" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C231" s="13" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="232" spans="3:3" ht="15">
+    <row r="232" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C232" s="13" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="233" spans="3:3" ht="15">
+    <row r="233" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C233" s="13" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="234" spans="3:3" ht="15">
+    <row r="234" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C234" s="13" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="235" spans="3:3" ht="15">
+    <row r="235" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C235" s="13" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="236" spans="3:3" ht="15">
+    <row r="236" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C236" s="13" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="237" spans="3:3" ht="15">
+    <row r="237" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C237" s="13" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="238" spans="3:3" ht="15">
+    <row r="238" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C238" s="13" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="239" spans="3:3" ht="15">
+    <row r="239" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C239" s="13" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="240" spans="3:3" ht="15">
+    <row r="240" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C240" s="13" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="241" spans="3:3" ht="15">
+    <row r="241" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C241" s="13" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="242" spans="3:3" ht="15">
+    <row r="242" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C242" s="13" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="243" spans="3:3" ht="15">
+    <row r="243" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C243" s="13" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="244" spans="3:3" ht="15">
+    <row r="244" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C244" s="13" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="245" spans="3:3" ht="15">
+    <row r="245" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C245" s="13" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="246" spans="3:3" ht="15">
+    <row r="246" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C246" s="13" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="247" spans="3:3" ht="15">
+    <row r="247" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C247" s="13" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="248" spans="3:3" ht="15">
+    <row r="248" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C248" s="13" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="249" spans="3:3" ht="15">
+    <row r="249" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C249" s="13" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="250" spans="3:3" ht="15">
+    <row r="250" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C250" s="13" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="251" spans="3:3" ht="15">
+    <row r="251" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C251" s="13" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="252" spans="3:3" ht="15">
+    <row r="252" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C252" s="13" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="253" spans="3:3" ht="15">
+    <row r="253" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C253" s="13" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="254" spans="3:3" ht="15">
+    <row r="254" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C254" s="13" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="255" spans="3:3" ht="15">
+    <row r="255" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C255" s="13" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="256" spans="3:3" ht="15">
+    <row r="256" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C256" s="13" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="257" spans="3:3" ht="15">
+    <row r="257" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C257" s="13" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="258" spans="3:3" ht="15">
+    <row r="258" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C258" s="13" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="259" spans="3:3" ht="15">
+    <row r="259" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C259" s="13" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="260" spans="3:3" ht="15">
+    <row r="260" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C260" s="13" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="261" spans="3:3" ht="15">
+    <row r="261" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C261" s="13" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="262" spans="3:3" ht="15">
+    <row r="262" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C262" s="13" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="263" spans="3:3" ht="15">
+    <row r="263" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C263" s="13" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="264" spans="3:3" ht="15">
+    <row r="264" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C264" s="13" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="265" spans="3:3" ht="15">
+    <row r="265" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C265" s="13" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="266" spans="3:3" ht="15">
+    <row r="266" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C266" s="13" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="267" spans="3:3" ht="15">
+    <row r="267" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C267" s="13" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="268" spans="3:3" ht="15">
+    <row r="268" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C268" s="13" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="269" spans="3:3" ht="15">
+    <row r="269" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C269" s="13" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="270" spans="3:3" ht="15">
+    <row r="270" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C270" s="13" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="271" spans="3:3" ht="15">
+    <row r="271" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C271" s="13" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="272" spans="3:3" ht="15">
+    <row r="272" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C272" s="13" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="273" spans="3:3" ht="15">
+    <row r="273" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C273" s="13" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="274" spans="3:3" ht="15">
+    <row r="274" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C274" s="13" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="275" spans="3:3" ht="15">
+    <row r="275" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C275" s="13" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="276" spans="3:3" ht="15">
+    <row r="276" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C276" s="13" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="277" spans="3:3" ht="15">
+    <row r="277" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C277" s="13" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="278" spans="3:3" ht="15">
+    <row r="278" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C278" s="13" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="279" spans="3:3" ht="15">
+    <row r="279" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C279" s="13" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="280" spans="3:3" ht="15">
+    <row r="280" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C280" s="13" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="281" spans="3:3" ht="15">
+    <row r="281" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C281" s="13" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="282" spans="3:3" ht="15">
+    <row r="282" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C282" s="13" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="283" spans="3:3" ht="15">
+    <row r="283" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C283" s="13" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="284" spans="3:3" ht="15">
+    <row r="284" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C284" s="13" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="285" spans="3:3" ht="15">
+    <row r="285" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C285" s="13" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="286" spans="3:3" ht="15">
+    <row r="286" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C286" s="13" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="287" spans="3:3" ht="15">
+    <row r="287" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C287" s="13" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="288" spans="3:3" ht="15">
+    <row r="288" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C288" s="13" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="289" spans="3:3" ht="15">
+    <row r="289" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C289" s="13" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="290" spans="3:3" ht="15">
+    <row r="290" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C290" s="13" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="291" spans="3:3" ht="15">
+    <row r="291" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C291" s="13" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="292" spans="3:3" ht="15">
+    <row r="292" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C292" s="13" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="293" spans="3:3">
+    <row r="293" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C293" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="294" spans="3:3">
+    <row r="294" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C294" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="295" spans="3:3">
+    <row r="295" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C295" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="296" spans="3:3">
+    <row r="296" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C296" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="297" spans="3:3">
+    <row r="297" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C297" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="298" spans="3:3">
+    <row r="298" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C298" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="299" spans="3:3">
+    <row r="299" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C299" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="300" spans="3:3">
+    <row r="300" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C300" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="301" spans="3:3">
+    <row r="301" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C301" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="302" spans="3:3">
+    <row r="302" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C302" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="303" spans="3:3">
+    <row r="303" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C303" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="304" spans="3:3">
+    <row r="304" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C304" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="305" spans="3:3">
+    <row r="305" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C305" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="306" spans="3:3">
+    <row r="306" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C306" t="s">
         <v>538</v>
+      </c>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C307" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C308" t="s">
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -4800,39 +4881,39 @@
       <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1796875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="31" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="40.7109375" customWidth="1"/>
-    <col min="25" max="25" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.85546875" customWidth="1"/>
+    <col min="20" max="20" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="40.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="40.7265625" customWidth="1"/>
+    <col min="25" max="25" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.81640625" customWidth="1"/>
     <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>539</v>
       </c>
@@ -4861,7 +4942,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>548</v>
       </c>
@@ -4956,7 +5037,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -5081,7 +5162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -5173,7 +5254,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -5259,7 +5340,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
         <v>13</v>
       </c>
@@ -5324,7 +5405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="F7" t="s">
         <v>13</v>
       </c>
@@ -5344,7 +5425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="L8" t="s">
         <v>13</v>
       </c>
@@ -5369,43 +5450,43 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="21" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>539</v>
       </c>
@@ -5425,7 +5506,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>583</v>
       </c>
@@ -5559,7 +5640,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -5736,7 +5817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -5867,7 +5948,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -5998,7 +6079,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -6111,7 +6192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -6167,7 +6248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
       <c r="H8" t="s">
         <v>13</v>
       </c>
@@ -6193,7 +6274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
       <c r="M9" t="s">
         <v>13</v>
       </c>
@@ -6214,14 +6295,14 @@
       <selection activeCell="A210" sqref="A210:C292"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -6232,7 +6313,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
@@ -6243,7 +6324,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
@@ -6254,7 +6335,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
@@ -6265,7 +6346,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
@@ -6276,7 +6357,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
@@ -6287,7 +6368,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>42</v>
       </c>
@@ -6298,7 +6379,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>45</v>
       </c>
@@ -6309,7 +6390,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>48</v>
       </c>
@@ -6320,7 +6401,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>51</v>
       </c>
@@ -6331,7 +6412,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>54</v>
       </c>
@@ -6342,7 +6423,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>57</v>
       </c>
@@ -6353,7 +6434,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>60</v>
       </c>
@@ -6364,7 +6445,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>63</v>
       </c>
@@ -6375,7 +6456,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>65</v>
       </c>
@@ -6386,7 +6467,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>67</v>
       </c>
@@ -6397,7 +6478,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>69</v>
       </c>
@@ -6408,7 +6489,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>71</v>
       </c>
@@ -6419,7 +6500,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>73</v>
       </c>
@@ -6430,7 +6511,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>75</v>
       </c>
@@ -6441,7 +6522,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>77</v>
       </c>
@@ -6452,7 +6533,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>79</v>
       </c>
@@ -6463,7 +6544,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>81</v>
       </c>
@@ -6474,7 +6555,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>83</v>
       </c>
@@ -6485,7 +6566,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>85</v>
       </c>
@@ -6496,7 +6577,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>87</v>
       </c>
@@ -6507,7 +6588,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>89</v>
       </c>
@@ -6518,7 +6599,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>91</v>
       </c>
@@ -6529,7 +6610,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>93</v>
       </c>
@@ -6540,7 +6621,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>95</v>
       </c>
@@ -6551,7 +6632,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>97</v>
       </c>
@@ -6562,7 +6643,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>99</v>
       </c>
@@ -6573,7 +6654,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>101</v>
       </c>
@@ -6584,7 +6665,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>103</v>
       </c>
@@ -6595,7 +6676,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>105</v>
       </c>
@@ -6606,7 +6687,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>107</v>
       </c>
@@ -6617,7 +6698,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>109</v>
       </c>
@@ -6628,7 +6709,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>111</v>
       </c>
@@ -6639,7 +6720,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>113</v>
       </c>
@@ -6650,7 +6731,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>115</v>
       </c>
@@ -6661,7 +6742,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>117</v>
       </c>
@@ -6672,7 +6753,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>119</v>
       </c>
@@ -6683,7 +6764,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>121</v>
       </c>
@@ -6694,7 +6775,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>123</v>
       </c>
@@ -6705,7 +6786,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>125</v>
       </c>
@@ -6716,7 +6797,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>126</v>
       </c>
@@ -6727,7 +6808,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>127</v>
       </c>
@@ -6738,7 +6819,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>537</v>
       </c>
@@ -6749,7 +6830,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>538</v>
       </c>
@@ -6760,7 +6841,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>128</v>
       </c>
@@ -6771,7 +6852,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>129</v>
       </c>
@@ -6782,7 +6863,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>130</v>
       </c>
@@ -6793,7 +6874,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>131</v>
       </c>
@@ -6804,7 +6885,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>133</v>
       </c>
@@ -6815,7 +6896,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>135</v>
       </c>
@@ -6826,7 +6907,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>137</v>
       </c>
@@ -6837,7 +6918,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>139</v>
       </c>
@@ -6848,7 +6929,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>141</v>
       </c>
@@ -6859,7 +6940,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>143</v>
       </c>
@@ -6870,7 +6951,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>122</v>
       </c>
@@ -6881,7 +6962,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>124</v>
       </c>
@@ -6892,7 +6973,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>147</v>
       </c>
@@ -6903,7 +6984,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>149</v>
       </c>
@@ -6914,7 +6995,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>151</v>
       </c>
@@ -6925,7 +7006,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>153</v>
       </c>
@@ -6936,7 +7017,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>155</v>
       </c>
@@ -6947,7 +7028,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>157</v>
       </c>
@@ -6958,7 +7039,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>159</v>
       </c>
@@ -6969,7 +7050,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>161</v>
       </c>
@@ -6980,7 +7061,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>163</v>
       </c>
@@ -6991,7 +7072,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>165</v>
       </c>
@@ -7002,7 +7083,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>167</v>
       </c>
@@ -7013,7 +7094,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>169</v>
       </c>
@@ -7024,7 +7105,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>171</v>
       </c>
@@ -7035,7 +7116,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>173</v>
       </c>
@@ -7046,7 +7127,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>175</v>
       </c>
@@ -7057,7 +7138,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>177</v>
       </c>
@@ -7068,7 +7149,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>179</v>
       </c>
@@ -7079,7 +7160,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>181</v>
       </c>
@@ -7090,7 +7171,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>183</v>
       </c>
@@ -7101,7 +7182,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>185</v>
       </c>
@@ -7112,7 +7193,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>187</v>
       </c>
@@ -7123,7 +7204,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>189</v>
       </c>
@@ -7134,7 +7215,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>191</v>
       </c>
@@ -7145,7 +7226,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>193</v>
       </c>
@@ -7156,7 +7237,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>195</v>
       </c>
@@ -7167,7 +7248,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>197</v>
       </c>
@@ -7178,7 +7259,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>199</v>
       </c>
@@ -7189,7 +7270,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>201</v>
       </c>
@@ -7200,7 +7281,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>203</v>
       </c>
@@ -7211,7 +7292,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>205</v>
       </c>
@@ -7222,7 +7303,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>207</v>
       </c>
@@ -7233,7 +7314,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>209</v>
       </c>
@@ -7244,7 +7325,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
         <v>211</v>
       </c>
@@ -7255,7 +7336,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>213</v>
       </c>
@@ -7266,7 +7347,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>215</v>
       </c>
@@ -7277,7 +7358,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>217</v>
       </c>
@@ -7288,7 +7369,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>219</v>
       </c>
@@ -7299,7 +7380,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>221</v>
       </c>
@@ -7310,7 +7391,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
         <v>223</v>
       </c>
@@ -7321,7 +7402,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>225</v>
       </c>
@@ -7332,7 +7413,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>227</v>
       </c>
@@ -7343,7 +7424,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>229</v>
       </c>
@@ -7354,7 +7435,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
         <v>231</v>
       </c>
@@ -7365,7 +7446,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
         <v>233</v>
       </c>
@@ -7376,7 +7457,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
         <v>235</v>
       </c>
@@ -7387,7 +7468,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>237</v>
       </c>
@@ -7398,7 +7479,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
         <v>239</v>
       </c>
@@ -7409,7 +7490,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
         <v>241</v>
       </c>
@@ -7420,7 +7501,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>243</v>
       </c>
@@ -7431,7 +7512,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>110</v>
       </c>
@@ -7442,7 +7523,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>112</v>
       </c>
@@ -7453,7 +7534,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>247</v>
       </c>
@@ -7464,7 +7545,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>249</v>
       </c>
@@ -7475,7 +7556,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>251</v>
       </c>
@@ -7486,7 +7567,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>253</v>
       </c>
@@ -7497,7 +7578,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>255</v>
       </c>
@@ -7508,7 +7589,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>257</v>
       </c>
@@ -7519,7 +7600,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>259</v>
       </c>
@@ -7530,7 +7611,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>261</v>
       </c>
@@ -7541,7 +7622,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>263</v>
       </c>
@@ -7552,7 +7633,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
         <v>265</v>
       </c>
@@ -7563,7 +7644,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
         <v>267</v>
       </c>
@@ -7574,7 +7655,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>269</v>
       </c>
@@ -7585,7 +7666,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
         <v>271</v>
       </c>
@@ -7596,7 +7677,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>273</v>
       </c>
@@ -7607,7 +7688,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>275</v>
       </c>
@@ -7618,7 +7699,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
         <v>277</v>
       </c>
@@ -7629,7 +7710,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
         <v>279</v>
       </c>
@@ -7640,7 +7721,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
         <v>281</v>
       </c>
@@ -7651,7 +7732,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
         <v>283</v>
       </c>
@@ -7662,7 +7743,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
         <v>285</v>
       </c>
@@ -7673,7 +7754,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
         <v>287</v>
       </c>
@@ -7684,7 +7765,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
         <v>289</v>
       </c>
@@ -7695,7 +7776,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
         <v>291</v>
       </c>
@@ -7706,7 +7787,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
         <v>293</v>
       </c>
@@ -7717,7 +7798,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
         <v>295</v>
       </c>
@@ -7728,7 +7809,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
         <v>297</v>
       </c>
@@ -7739,7 +7820,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
         <v>299</v>
       </c>
@@ -7750,7 +7831,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
         <v>301</v>
       </c>
@@ -7761,7 +7842,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
         <v>303</v>
       </c>
@@ -7772,7 +7853,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
         <v>305</v>
       </c>
@@ -7783,7 +7864,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
         <v>307</v>
       </c>
@@ -7794,7 +7875,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
         <v>309</v>
       </c>
@@ -7805,7 +7886,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
         <v>311</v>
       </c>
@@ -7816,7 +7897,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
         <v>313</v>
       </c>
@@ -7827,7 +7908,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
         <v>315</v>
       </c>
@@ -7838,7 +7919,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
         <v>317</v>
       </c>
@@ -7849,7 +7930,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
         <v>319</v>
       </c>
@@ -7860,7 +7941,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
         <v>321</v>
       </c>
@@ -7871,7 +7952,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
         <v>323</v>
       </c>
@@ -7882,7 +7963,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
         <v>325</v>
       </c>
@@ -7893,7 +7974,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
         <v>327</v>
       </c>
@@ -7904,7 +7985,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
         <v>329</v>
       </c>
@@ -7915,7 +7996,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
         <v>331</v>
       </c>
@@ -7926,7 +8007,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
         <v>333</v>
       </c>
@@ -7937,7 +8018,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
         <v>335</v>
       </c>
@@ -7948,7 +8029,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
         <v>337</v>
       </c>
@@ -7959,7 +8040,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
         <v>339</v>
       </c>
@@ -7970,7 +8051,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
         <v>341</v>
       </c>
@@ -7981,7 +8062,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
         <v>343</v>
       </c>
@@ -7992,7 +8073,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
         <v>345</v>
       </c>
@@ -8003,7 +8084,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
         <v>347</v>
       </c>
@@ -8014,7 +8095,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
         <v>349</v>
       </c>
@@ -8025,7 +8106,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
         <v>351</v>
       </c>
@@ -8036,7 +8117,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
         <v>353</v>
       </c>
@@ -8047,7 +8128,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
         <v>355</v>
       </c>
@@ -8058,7 +8139,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
         <v>357</v>
       </c>
@@ -8069,7 +8150,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
         <v>359</v>
       </c>
@@ -8080,7 +8161,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
         <v>361</v>
       </c>
@@ -8091,7 +8172,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
         <v>363</v>
       </c>
@@ -8102,7 +8183,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
         <v>365</v>
       </c>
@@ -8113,7 +8194,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
         <v>367</v>
       </c>
@@ -8124,7 +8205,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
         <v>369</v>
       </c>
@@ -8135,7 +8216,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
         <v>371</v>
       </c>
@@ -8146,7 +8227,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
         <v>373</v>
       </c>
@@ -8157,7 +8238,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
         <v>375</v>
       </c>
@@ -8168,7 +8249,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
         <v>377</v>
       </c>
@@ -8179,7 +8260,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
         <v>379</v>
       </c>
@@ -8190,7 +8271,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
         <v>381</v>
       </c>
@@ -8201,7 +8282,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
         <v>383</v>
       </c>
@@ -8212,7 +8293,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
         <v>385</v>
       </c>
@@ -8223,7 +8304,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
         <v>387</v>
       </c>
@@ -8234,7 +8315,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
         <v>389</v>
       </c>
@@ -8245,7 +8326,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
         <v>391</v>
       </c>
@@ -8256,7 +8337,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
         <v>393</v>
       </c>
@@ -8267,7 +8348,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="4" t="s">
         <v>395</v>
       </c>
@@ -8278,7 +8359,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
         <v>397</v>
       </c>
@@ -8289,7 +8370,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
         <v>399</v>
       </c>
@@ -8300,7 +8381,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="4" t="s">
         <v>401</v>
       </c>
@@ -8311,7 +8392,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="4" t="s">
         <v>403</v>
       </c>
@@ -8322,7 +8403,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="4" t="s">
         <v>405</v>
       </c>
@@ -8333,7 +8414,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="4" t="s">
         <v>407</v>
       </c>
@@ -8344,7 +8425,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="4" t="s">
         <v>409</v>
       </c>
@@ -8355,7 +8436,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="4" t="s">
         <v>411</v>
       </c>
@@ -8366,7 +8447,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="4" t="s">
         <v>413</v>
       </c>
@@ -8377,7 +8458,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="7" t="s">
         <v>415</v>
       </c>
@@ -8388,7 +8469,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="4" t="s">
         <v>417</v>
       </c>
@@ -8399,7 +8480,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="4" t="s">
         <v>419</v>
       </c>
@@ -8410,7 +8491,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
         <v>421</v>
       </c>
@@ -8421,7 +8502,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
         <v>423</v>
       </c>
@@ -8432,7 +8513,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
         <v>425</v>
       </c>
@@ -8443,7 +8524,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
         <v>427</v>
       </c>
@@ -8454,7 +8535,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="s">
         <v>429</v>
       </c>
@@ -8465,7 +8546,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
         <v>431</v>
       </c>
@@ -8476,7 +8557,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
         <v>433</v>
       </c>
@@ -8487,7 +8568,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="5" t="s">
         <v>435</v>
       </c>
@@ -8498,7 +8579,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="5" t="s">
         <v>437</v>
       </c>
@@ -8509,7 +8590,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="6" t="s">
         <v>439</v>
       </c>
@@ -8520,7 +8601,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="15">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="9" t="s">
         <v>441</v>
       </c>
@@ -8531,7 +8612,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="15">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="11" t="s">
         <v>443</v>
       </c>
@@ -8542,7 +8623,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="15">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="11" t="s">
         <v>444</v>
       </c>
@@ -8553,7 +8634,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="15">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="11" t="s">
         <v>445</v>
       </c>
@@ -8564,7 +8645,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="15">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="11" t="s">
         <v>446</v>
       </c>
@@ -8575,7 +8656,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="11" t="s">
         <v>447</v>
       </c>
@@ -8586,7 +8667,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="15">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="11" t="s">
         <v>448</v>
       </c>
@@ -8597,7 +8678,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="15">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="11" t="s">
         <v>449</v>
       </c>
@@ -8608,7 +8689,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="15">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="11" t="s">
         <v>450</v>
       </c>
@@ -8619,7 +8700,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="11" t="s">
         <v>451</v>
       </c>
@@ -8630,7 +8711,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="15">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="11" t="s">
         <v>452</v>
       </c>
@@ -8641,7 +8722,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="15">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="11" t="s">
         <v>453</v>
       </c>
@@ -8652,7 +8733,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="15">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="11" t="s">
         <v>454</v>
       </c>
@@ -8663,7 +8744,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="15">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="11" t="s">
         <v>455</v>
       </c>
@@ -8674,7 +8755,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="15">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="11" t="s">
         <v>456</v>
       </c>
@@ -8685,7 +8766,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="15">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="11" t="s">
         <v>457</v>
       </c>
@@ -8696,7 +8777,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="15">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="11" t="s">
         <v>458</v>
       </c>
@@ -8707,7 +8788,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="15">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="11" t="s">
         <v>459</v>
       </c>
@@ -8718,7 +8799,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="15">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="11" t="s">
         <v>460</v>
       </c>
@@ -8729,7 +8810,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="15">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="11" t="s">
         <v>461</v>
       </c>
@@ -8740,7 +8821,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="15">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="11" t="s">
         <v>462</v>
       </c>
@@ -8751,7 +8832,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="15">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="11" t="s">
         <v>463</v>
       </c>
@@ -8762,7 +8843,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="15">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="11" t="s">
         <v>464</v>
       </c>
@@ -8773,7 +8854,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="15">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="11" t="s">
         <v>465</v>
       </c>
@@ -8784,7 +8865,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="15">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="11" t="s">
         <v>466</v>
       </c>
@@ -8795,7 +8876,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="15">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="11" t="s">
         <v>467</v>
       </c>
@@ -8806,7 +8887,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="15">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="11" t="s">
         <v>468</v>
       </c>
@@ -8817,7 +8898,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="15">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="11" t="s">
         <v>469</v>
       </c>
@@ -8828,7 +8909,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="15">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="11" t="s">
         <v>470</v>
       </c>
@@ -8839,7 +8920,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="15">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="11" t="s">
         <v>471</v>
       </c>
@@ -8850,7 +8931,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="15">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="11" t="s">
         <v>472</v>
       </c>
@@ -8861,7 +8942,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="15">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="11" t="s">
         <v>473</v>
       </c>
@@ -8872,7 +8953,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="15">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="11" t="s">
         <v>474</v>
       </c>
@@ -8883,7 +8964,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="15">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="11" t="s">
         <v>475</v>
       </c>
@@ -8894,7 +8975,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="15">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="11" t="s">
         <v>476</v>
       </c>
@@ -8905,7 +8986,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="15">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="11" t="s">
         <v>477</v>
       </c>
@@ -8916,7 +8997,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="15">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="11" t="s">
         <v>478</v>
       </c>
@@ -8927,7 +9008,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="15">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="11" t="s">
         <v>479</v>
       </c>
@@ -8938,7 +9019,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="15">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="11" t="s">
         <v>480</v>
       </c>
@@ -8949,7 +9030,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="15">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="11" t="s">
         <v>481</v>
       </c>
@@ -8960,7 +9041,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="15">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" s="11" t="s">
         <v>482</v>
       </c>
@@ -8971,7 +9052,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="15">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" s="11" t="s">
         <v>483</v>
       </c>
@@ -8982,7 +9063,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="15">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" s="11" t="s">
         <v>484</v>
       </c>
@@ -8993,7 +9074,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="15">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="11" t="s">
         <v>485</v>
       </c>
@@ -9004,7 +9085,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="15">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="11" t="s">
         <v>486</v>
       </c>
@@ -9015,7 +9096,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="15">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="11" t="s">
         <v>487</v>
       </c>
@@ -9026,7 +9107,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="15">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="11" t="s">
         <v>488</v>
       </c>
@@ -9037,7 +9118,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="15">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="11" t="s">
         <v>489</v>
       </c>
@@ -9048,7 +9129,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="15">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" s="11" t="s">
         <v>490</v>
       </c>
@@ -9059,7 +9140,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="15">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="11" t="s">
         <v>491</v>
       </c>
@@ -9070,7 +9151,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="15">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" s="11" t="s">
         <v>492</v>
       </c>
@@ -9081,7 +9162,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="15">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="11" t="s">
         <v>493</v>
       </c>
@@ -9092,7 +9173,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="15">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" s="11" t="s">
         <v>494</v>
       </c>
@@ -9103,7 +9184,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="15">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" s="11" t="s">
         <v>495</v>
       </c>
@@ -9114,7 +9195,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="15">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" s="11" t="s">
         <v>496</v>
       </c>
@@ -9125,7 +9206,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="15">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" s="11" t="s">
         <v>497</v>
       </c>
@@ -9136,7 +9217,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="15">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" s="11" t="s">
         <v>498</v>
       </c>
@@ -9147,7 +9228,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="15">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="11" t="s">
         <v>499</v>
       </c>
@@ -9158,7 +9239,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="15">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="11" t="s">
         <v>500</v>
       </c>
@@ -9169,7 +9250,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="15">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" s="11" t="s">
         <v>501</v>
       </c>
@@ -9180,7 +9261,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="15">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" s="11" t="s">
         <v>502</v>
       </c>
@@ -9191,7 +9272,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="15">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" s="11" t="s">
         <v>503</v>
       </c>
@@ -9202,7 +9283,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="15">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" s="11" t="s">
         <v>504</v>
       </c>
@@ -9213,7 +9294,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="15">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="11" t="s">
         <v>505</v>
       </c>
@@ -9224,7 +9305,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="15">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" s="11" t="s">
         <v>506</v>
       </c>
@@ -9235,7 +9316,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="15">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" s="11" t="s">
         <v>507</v>
       </c>
@@ -9246,7 +9327,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="15">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" s="11" t="s">
         <v>508</v>
       </c>
@@ -9257,7 +9338,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="15">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" s="11" t="s">
         <v>509</v>
       </c>
@@ -9268,7 +9349,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="15">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" s="11" t="s">
         <v>510</v>
       </c>
@@ -9279,7 +9360,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="15">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="11" t="s">
         <v>511</v>
       </c>
@@ -9290,7 +9371,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="15">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" s="11" t="s">
         <v>512</v>
       </c>
@@ -9301,7 +9382,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="15">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" s="11" t="s">
         <v>513</v>
       </c>
@@ -9312,7 +9393,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="15">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" s="11" t="s">
         <v>514</v>
       </c>
@@ -9323,7 +9404,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="15">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="11" t="s">
         <v>515</v>
       </c>
@@ -9334,7 +9415,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="15">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="11" t="s">
         <v>516</v>
       </c>
@@ -9345,7 +9426,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="15">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" s="11" t="s">
         <v>517</v>
       </c>
@@ -9356,7 +9437,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="15">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" s="11" t="s">
         <v>518</v>
       </c>
@@ -9367,7 +9448,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="15">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" s="11" t="s">
         <v>519</v>
       </c>
@@ -9378,7 +9459,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="15">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" s="11" t="s">
         <v>520</v>
       </c>
@@ -9389,7 +9470,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="15">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" s="11" t="s">
         <v>521</v>
       </c>
@@ -9400,7 +9481,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="15">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" s="11" t="s">
         <v>522</v>
       </c>
@@ -9411,7 +9492,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="15">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" s="11" t="s">
         <v>523</v>
       </c>
@@ -9422,7 +9503,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="15">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" s="11" t="s">
         <v>524</v>
       </c>
@@ -9433,7 +9514,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" s="6" t="s">
         <v>525</v>
       </c>
@@ -9444,7 +9525,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" s="6" t="s">
         <v>526</v>
       </c>
@@ -9455,7 +9536,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" s="6" t="s">
         <v>527</v>
       </c>
@@ -9466,7 +9547,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" s="6" t="s">
         <v>528</v>
       </c>
@@ -9477,7 +9558,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" s="5" t="s">
         <v>529</v>
       </c>
@@ -9488,7 +9569,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" s="5" t="s">
         <v>530</v>
       </c>
@@ -9499,7 +9580,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" s="8" t="s">
         <v>531</v>
       </c>
@@ -9510,7 +9591,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" s="8" t="s">
         <v>532</v>
       </c>
@@ -9521,7 +9602,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" s="8" t="s">
         <v>533</v>
       </c>
@@ -9532,7 +9613,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" s="8" t="s">
         <v>534</v>
       </c>
@@ -9543,7 +9624,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" s="8" t="s">
         <v>535</v>
       </c>
@@ -9554,7 +9635,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304" s="8" t="s">
         <v>536</v>
       </c>
@@ -9572,8 +9653,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2854f1a0eb82b4299baec9a2bc5fa3aa">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e5d0997856646832757f031b0a9b789" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="27b2dddd8e7dbb40e638da4098fa8bb9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d3d23b2622c6bf8a24212abcb0f9b2c" ns2:_="" ns3:_="">
     <xsd:import namespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
     <xsd:import namespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1"/>
     <xsd:element name="properties">
@@ -9655,7 +9736,7 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -9676,7 +9757,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -9695,7 +9776,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -9712,8 +9793,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -9822,13 +9903,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44EABBD6-779A-48CC-9ED2-A26C957FCC1E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33B30B6B-75AE-4A9A-ACB4-6042D2611625}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
+    <ds:schemaRef ds:uri="1b6bb729-2ef5-410d-b4d4-7ced22c361d1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E67016B-2BB4-478C-AF15-1A9FF8562EBE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E67016B-2BB4-478C-AF15-1A9FF8562EBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C8338AF-8AC2-43D7-8F90-72D0B1807480}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C8338AF-8AC2-43D7-8F90-72D0B1807480}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/t3a_experiments/Experiment_1/0_From_Confection/B1_Model_Structure.xlsx
+++ b/t3a_experiments/Experiment_1/0_From_Confection/B1_Model_Structure.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EE602C-A2DD-4AE3-98AD-032CCC521335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0042142F-9ED8-411D-BA3B-BAF94CFC0D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sets" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="626">
   <si>
     <t>set</t>
   </si>
@@ -1910,6 +1910,9 @@
   </si>
   <si>
     <t>CO2e_WASTE</t>
+  </si>
+  <si>
+    <t>GA_OTRCARPOR</t>
   </si>
   <si>
     <t>CO2e</t>
@@ -2050,7 +2053,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2065,6 +2068,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2346,10 +2350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L291"/>
+  <dimension ref="A1:L292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A291" sqref="A291:XFD291"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2448,47 +2452,47 @@
         <v>24</v>
       </c>
       <c r="B3">
-        <f>+COUNTA(B4:B1048576)</f>
+        <f t="shared" ref="B3:L3" si="0">+COUNTA(B4:B1048576)</f>
         <v>33</v>
       </c>
       <c r="C3">
         <f>+COUNTA(C4:C1048576)</f>
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D3">
-        <f>+COUNTA(D4:D1048576)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E3">
-        <f>+COUNTA(E4:E1048576)</f>
+        <f t="shared" si="0"/>
         <v>181</v>
       </c>
       <c r="F3">
-        <f>+COUNTA(F4:F1048576)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="G3">
-        <f>+COUNTA(G4:G1048576)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H3">
-        <f>+COUNTA(H4:H1048576)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I3">
-        <f>+COUNTA(I4:I1048576)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>+COUNTA(J4:J1048576)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>+COUNTA(K4:K1048576)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L3">
-        <f>+COUNTA(L4:L1048576)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2791,8 +2795,8 @@
       <c r="E24" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="14" t="s">
-        <v>624</v>
+      <c r="F24" s="15" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
@@ -4651,7 +4655,12 @@
       </c>
     </row>
     <row r="291" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C291" s="12"/>
+      <c r="C291" s="14" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C292" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9438,15 +9447,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c2c21c4-f980-47d5-be5b-1bb924ee96a2">
@@ -9454,6 +9454,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9688,19 +9697,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E67016B-2BB4-478C-AF15-1A9FF8562EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C8338AF-8AC2-43D7-8F90-72D0B1807480}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C8338AF-8AC2-43D7-8F90-72D0B1807480}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E67016B-2BB4-478C-AF15-1A9FF8562EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/t3a_experiments/Experiment_1/0_From_Confection/B1_Model_Structure.xlsx
+++ b/t3a_experiments/Experiment_1/0_From_Confection/B1_Model_Structure.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86724C66-F305-4FFC-AF3E-403D167AB920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{86724C66-F305-4FFC-AF3E-403D167AB920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52069E91-D434-4DA4-906D-136DA54D34FC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,8 +14,8 @@
     <sheet name="sector" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">sector!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sets!$A$3:$L$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">sector!$A$1:$D$293</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sets!$A$3:$L$295</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="622">
   <si>
     <t>set</t>
   </si>
@@ -1988,7 +1988,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2061,6 +2061,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -2126,7 +2132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2148,6 +2154,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2437,8 +2444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L295"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C278" sqref="C278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4768,6 +4775,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:L295" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -6187,9 +6195,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED10C39E-557A-4278-BB05-98C0EDA618C0}">
-  <dimension ref="A1:G282"/>
+  <dimension ref="A1:D293"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="A283" sqref="A283:A293"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6197,7 +6207,7 @@
     <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -7544,7 +7554,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>234</v>
       </c>
@@ -7558,7 +7568,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>236</v>
       </c>
@@ -7572,7 +7582,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>240</v>
       </c>
@@ -7586,7 +7596,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>242</v>
       </c>
@@ -7600,7 +7610,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>244</v>
       </c>
@@ -7614,7 +7624,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>246</v>
       </c>
@@ -7628,7 +7638,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>248</v>
       </c>
@@ -7642,7 +7652,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>250</v>
       </c>
@@ -7656,7 +7666,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>252</v>
       </c>
@@ -7669,9 +7679,8 @@
       <c r="D105" s="13" t="s">
         <v>603</v>
       </c>
-      <c r="G105" s="10"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>121</v>
       </c>
@@ -7685,7 +7694,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>123</v>
       </c>
@@ -7699,7 +7708,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>256</v>
       </c>
@@ -7713,7 +7722,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>258</v>
       </c>
@@ -7727,7 +7736,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>260</v>
       </c>
@@ -7741,7 +7750,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>262</v>
       </c>
@@ -7755,7 +7764,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>264</v>
       </c>
@@ -8889,7 +8898,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>416</v>
       </c>
@@ -8903,7 +8912,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>417</v>
       </c>
@@ -8917,7 +8926,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="8" t="s">
         <v>418</v>
       </c>
@@ -8931,7 +8940,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="8" t="s">
         <v>419</v>
       </c>
@@ -8945,7 +8954,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="8" t="s">
         <v>420</v>
       </c>
@@ -8959,7 +8968,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="8" t="s">
         <v>424</v>
       </c>
@@ -8973,7 +8982,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="8" t="s">
         <v>425</v>
       </c>
@@ -8987,7 +8996,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="8" t="s">
         <v>421</v>
       </c>
@@ -9001,7 +9010,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="8" t="s">
         <v>422</v>
       </c>
@@ -9015,7 +9024,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="8" t="s">
         <v>423</v>
       </c>
@@ -9029,7 +9038,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="8" t="s">
         <v>426</v>
       </c>
@@ -9043,7 +9052,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="8" t="s">
         <v>427</v>
       </c>
@@ -9057,7 +9066,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="8" t="s">
         <v>428</v>
       </c>
@@ -9071,7 +9080,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="8" t="s">
         <v>429</v>
       </c>
@@ -9085,7 +9094,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="8" t="s">
         <v>430</v>
       </c>
@@ -9099,7 +9108,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="8" t="s">
         <v>431</v>
       </c>
@@ -9112,9 +9121,8 @@
       <c r="D208" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F208" s="10"/>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="8" t="s">
         <v>432</v>
       </c>
@@ -9127,9 +9135,8 @@
       <c r="D209" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F209" s="10"/>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="8" t="s">
         <v>433</v>
       </c>
@@ -9142,9 +9149,8 @@
       <c r="D210" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F210" s="10"/>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="8" t="s">
         <v>434</v>
       </c>
@@ -9157,9 +9163,8 @@
       <c r="D211" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F211" s="10"/>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="8" t="s">
         <v>435</v>
       </c>
@@ -9172,9 +9177,8 @@
       <c r="D212" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F212" s="10"/>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="8" t="s">
         <v>436</v>
       </c>
@@ -9187,9 +9191,8 @@
       <c r="D213" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F213" s="10"/>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="8" t="s">
         <v>437</v>
       </c>
@@ -9202,9 +9205,8 @@
       <c r="D214" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F214" s="10"/>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="8" t="s">
         <v>438</v>
       </c>
@@ -9217,9 +9219,8 @@
       <c r="D215" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F215" s="10"/>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="8" t="s">
         <v>439</v>
       </c>
@@ -9232,9 +9233,8 @@
       <c r="D216" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F216" s="10"/>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="8" t="s">
         <v>440</v>
       </c>
@@ -9247,9 +9247,8 @@
       <c r="D217" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F217" s="10"/>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="8" t="s">
         <v>441</v>
       </c>
@@ -9262,9 +9261,8 @@
       <c r="D218" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F218" s="10"/>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="8" t="s">
         <v>442</v>
       </c>
@@ -9277,9 +9275,8 @@
       <c r="D219" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F219" s="10"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="8" t="s">
         <v>443</v>
       </c>
@@ -9292,9 +9289,8 @@
       <c r="D220" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F220" s="10"/>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="8" t="s">
         <v>444</v>
       </c>
@@ -9307,9 +9303,8 @@
       <c r="D221" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F221" s="10"/>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="8" t="s">
         <v>445</v>
       </c>
@@ -9322,9 +9317,8 @@
       <c r="D222" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F222" s="10"/>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="8" t="s">
         <v>446</v>
       </c>
@@ -9337,9 +9331,8 @@
       <c r="D223" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F223" s="10"/>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="8" t="s">
         <v>447</v>
       </c>
@@ -9352,9 +9345,8 @@
       <c r="D224" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F224" s="10"/>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="8" t="s">
         <v>448</v>
       </c>
@@ -9367,9 +9359,8 @@
       <c r="D225" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F225" s="10"/>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="8" t="s">
         <v>449</v>
       </c>
@@ -9382,9 +9373,8 @@
       <c r="D226" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F226" s="10"/>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="8" t="s">
         <v>450</v>
       </c>
@@ -9397,9 +9387,8 @@
       <c r="D227" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F227" s="10"/>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="8" t="s">
         <v>451</v>
       </c>
@@ -9412,9 +9401,8 @@
       <c r="D228" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F228" s="10"/>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="8" t="s">
         <v>452</v>
       </c>
@@ -9427,9 +9415,8 @@
       <c r="D229" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F229" s="10"/>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="8" t="s">
         <v>453</v>
       </c>
@@ -9442,9 +9429,8 @@
       <c r="D230" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F230" s="10"/>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="8" t="s">
         <v>454</v>
       </c>
@@ -9457,9 +9443,8 @@
       <c r="D231" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F231" s="10"/>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="8" t="s">
         <v>455</v>
       </c>
@@ -9472,9 +9457,8 @@
       <c r="D232" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F232" s="10"/>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="8" t="s">
         <v>456</v>
       </c>
@@ -9487,9 +9471,8 @@
       <c r="D233" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F233" s="10"/>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
         <v>457</v>
       </c>
@@ -9502,9 +9485,8 @@
       <c r="D234" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F234" s="10"/>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="8" t="s">
         <v>458</v>
       </c>
@@ -9517,9 +9499,8 @@
       <c r="D235" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F235" s="10"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="8" t="s">
         <v>459</v>
       </c>
@@ -9532,9 +9513,8 @@
       <c r="D236" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F236" s="10"/>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="8" t="s">
         <v>460</v>
       </c>
@@ -9547,9 +9527,8 @@
       <c r="D237" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F237" s="10"/>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="8" t="s">
         <v>461</v>
       </c>
@@ -9562,9 +9541,8 @@
       <c r="D238" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F238" s="10"/>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="8" t="s">
         <v>462</v>
       </c>
@@ -9577,9 +9555,8 @@
       <c r="D239" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F239" s="10"/>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="8" t="s">
         <v>463</v>
       </c>
@@ -9592,9 +9569,8 @@
       <c r="D240" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F240" s="10"/>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="8" t="s">
         <v>464</v>
       </c>
@@ -9607,9 +9583,8 @@
       <c r="D241" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F241" s="10"/>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="8" t="s">
         <v>465</v>
       </c>
@@ -9622,9 +9597,8 @@
       <c r="D242" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F242" s="10"/>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="8" t="s">
         <v>466</v>
       </c>
@@ -9637,9 +9611,8 @@
       <c r="D243" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F243" s="10"/>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="8" t="s">
         <v>467</v>
       </c>
@@ -9652,9 +9625,8 @@
       <c r="D244" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F244" s="10"/>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="8" t="s">
         <v>468</v>
       </c>
@@ -9667,9 +9639,8 @@
       <c r="D245" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F245" s="10"/>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="8" t="s">
         <v>469</v>
       </c>
@@ -9682,9 +9653,8 @@
       <c r="D246" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F246" s="10"/>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="8" t="s">
         <v>470</v>
       </c>
@@ -9697,9 +9667,8 @@
       <c r="D247" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F247" s="10"/>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="8" t="s">
         <v>471</v>
       </c>
@@ -9712,9 +9681,8 @@
       <c r="D248" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F248" s="10"/>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="8" t="s">
         <v>472</v>
       </c>
@@ -9727,9 +9695,8 @@
       <c r="D249" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F249" s="10"/>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="8" t="s">
         <v>473</v>
       </c>
@@ -9742,9 +9709,8 @@
       <c r="D250" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F250" s="10"/>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="8" t="s">
         <v>474</v>
       </c>
@@ -9757,9 +9723,8 @@
       <c r="D251" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F251" s="10"/>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="8" t="s">
         <v>475</v>
       </c>
@@ -9772,9 +9737,8 @@
       <c r="D252" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F252" s="10"/>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="8" t="s">
         <v>476</v>
       </c>
@@ -9787,9 +9751,8 @@
       <c r="D253" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F253" s="10"/>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="8" t="s">
         <v>477</v>
       </c>
@@ -9802,9 +9765,8 @@
       <c r="D254" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F254" s="10"/>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="8" t="s">
         <v>478</v>
       </c>
@@ -9817,9 +9779,8 @@
       <c r="D255" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F255" s="10"/>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="8" t="s">
         <v>479</v>
       </c>
@@ -9832,9 +9793,8 @@
       <c r="D256" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F256" s="10"/>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="8" t="s">
         <v>480</v>
       </c>
@@ -9847,9 +9807,8 @@
       <c r="D257" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F257" s="10"/>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="8" t="s">
         <v>481</v>
       </c>
@@ -9862,9 +9821,8 @@
       <c r="D258" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F258" s="10"/>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="8" t="s">
         <v>482</v>
       </c>
@@ -9877,9 +9835,8 @@
       <c r="D259" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F259" s="10"/>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="8" t="s">
         <v>483</v>
       </c>
@@ -9892,9 +9849,8 @@
       <c r="D260" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F260" s="10"/>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="8" t="s">
         <v>484</v>
       </c>
@@ -9907,9 +9863,8 @@
       <c r="D261" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F261" s="10"/>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="8" t="s">
         <v>485</v>
       </c>
@@ -9922,9 +9877,8 @@
       <c r="D262" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F262" s="10"/>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="8" t="s">
         <v>486</v>
       </c>
@@ -9937,9 +9891,8 @@
       <c r="D263" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F263" s="10"/>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="8" t="s">
         <v>487</v>
       </c>
@@ -9952,9 +9905,8 @@
       <c r="D264" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F264" s="10"/>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="8" t="s">
         <v>488</v>
       </c>
@@ -9967,9 +9919,8 @@
       <c r="D265" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F265" s="10"/>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="8" t="s">
         <v>489</v>
       </c>
@@ -9982,9 +9933,8 @@
       <c r="D266" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F266" s="10"/>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="8" t="s">
         <v>490</v>
       </c>
@@ -9997,9 +9947,8 @@
       <c r="D267" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F267" s="10"/>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="8" t="s">
         <v>491</v>
       </c>
@@ -10012,9 +9961,8 @@
       <c r="D268" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F268" s="10"/>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="8" t="s">
         <v>492</v>
       </c>
@@ -10027,9 +9975,8 @@
       <c r="D269" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F269" s="10"/>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="8" t="s">
         <v>493</v>
       </c>
@@ -10042,9 +9989,8 @@
       <c r="D270" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F270" s="10"/>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="8" t="s">
         <v>494</v>
       </c>
@@ -10057,9 +10003,8 @@
       <c r="D271" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F271" s="10"/>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="8" t="s">
         <v>495</v>
       </c>
@@ -10072,9 +10017,8 @@
       <c r="D272" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F272" s="10"/>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="8" t="s">
         <v>496</v>
       </c>
@@ -10087,9 +10031,8 @@
       <c r="D273" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F273" s="10"/>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="8" t="s">
         <v>497</v>
       </c>
@@ -10102,9 +10045,8 @@
       <c r="D274" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F274" s="10"/>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="8" t="s">
         <v>498</v>
       </c>
@@ -10117,10 +10059,9 @@
       <c r="D275" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F275" s="10"/>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A276" s="8" t="s">
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" s="21" t="s">
         <v>499</v>
       </c>
       <c r="B276" s="9" t="s">
@@ -10132,9 +10073,8 @@
       <c r="D276" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F276" s="10"/>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
         <v>503</v>
       </c>
@@ -10148,7 +10088,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="5" t="s">
         <v>504</v>
       </c>
@@ -10162,7 +10102,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
         <v>505</v>
       </c>
@@ -10176,7 +10116,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="5" t="s">
         <v>502</v>
       </c>
@@ -10190,7 +10130,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
         <v>500</v>
       </c>
@@ -10204,7 +10144,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
         <v>501</v>
       </c>
@@ -10218,33 +10158,168 @@
         <v>605</v>
       </c>
     </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D283" s="17" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D284" s="17" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D285" s="17" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D286" s="17" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D287" s="17" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D288" s="17" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D289" s="17" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D290" s="17" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D291" s="17" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D292" s="17" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D293" s="17" t="s">
+        <v>599</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D282" xr:uid="{51B380EC-F6E5-4369-BC41-BC40A47B4895}"/>
+  <autoFilter ref="A1:D293" xr:uid="{51B380EC-F6E5-4369-BC41-BC40A47B4895}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c2c21c4-f980-47d5-be5b-1bb924ee96a2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="694dc5982778b78571808a8a0bab1175">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac46d101c58d29857918b5bc3d6299d1" ns2:_="" ns3:_="">
     <xsd:import namespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
@@ -10475,14 +10550,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c2c21c4-f980-47d5-be5b-1bb924ee96a2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C8338AF-8AC2-43D7-8F90-72D0B1807480}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{585148F4-AA9F-4384-93B2-8474BB8B5E18}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10494,5 +10582,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFBDF0BD-7BC3-494E-A10E-19C46C6B1FC8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C8338AF-8AC2-43D7-8F90-72D0B1807480}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>